--- a/dataset/vector1.xlsx
+++ b/dataset/vector1.xlsx
@@ -1326,18 +1326,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>310</v>
+        <v>3488</v>
       </c>
       <c r="D27" t="n">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             if  ( status.actionCountdown == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; static int flagPot = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1347,11 +1347,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1360,18 +1360,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3488</v>
+        <v>4572</v>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int flagPot = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #if defined ( ATMEL_START )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1394,18 +1394,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4572</v>
+        <v>3829</v>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #if defined ( ATMEL_START )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;p24Fxxxx.h&gt; &lt;end&gt;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1428,18 +1428,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2559</v>
+        <v>1358</v>
       </c>
       <c r="D30" t="n">
-        <v>261</v>
+        <v>550</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; }  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1462,18 +1462,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3829</v>
+        <v>2278</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;p24Fxxxx.h&gt; &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x7 , 0x1e , 0x0 , 0x78 , 0xe3 , 0x80 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1496,18 +1496,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3571</v>
+        <v>2381</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagWrongPass == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1530,18 +1530,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1358</v>
+        <v>852</v>
       </c>
       <c r="D33" t="n">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>&lt;start&gt; }  &lt;end&gt;</t>
+          <t>&lt;start&gt;         return ret ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1564,18 +1564,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2278</v>
+        <v>1884</v>
       </c>
       <c r="D34" t="n">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x7 , 0x1e , 0x0 , 0x78 , 0xe3 , 0x80 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       sign ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1598,18 +1598,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2381</v>
+        <v>1133</v>
       </c>
       <c r="D35" t="n">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; r = nonVolatileWrite ( ciphertext ,  partition ,  block_start ,  16 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1632,18 +1632,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>852</v>
+        <v>1932</v>
       </c>
       <c r="D36" t="n">
-        <v>110</v>
+        <v>429</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return ret ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1666,18 +1666,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1884</v>
+        <v>3636</v>
       </c>
       <c r="D37" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       sign ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_puts ( "Otvoren sef!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1700,18 +1700,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1133</v>
+        <v>4097</v>
       </c>
       <c r="D38" t="n">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>&lt;start&gt; r = nonVolatileWrite ( ciphertext ,  partition ,  block_start ,  16 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     char idCode[8] = "0000001" ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1734,18 +1734,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1932</v>
+        <v>3497</v>
       </c>
       <c r="D39" t="n">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; unsigned char column ,  row ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1768,18 +1768,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3636</v>
+        <v>3388</v>
       </c>
       <c r="D40" t="n">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_puts ( "Otvoren sef!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1802,18 +1802,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4097</v>
+        <v>3325</v>
       </c>
       <c r="D41" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     char idCode[8] = "0000001" ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; GQuark r_crypt_error_quark ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1836,18 +1836,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3497</v>
+        <v>1304</v>
       </c>
       <c r="D42" t="n">
-        <v>41</v>
+        <v>493</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>&lt;start&gt; unsigned char column ,  row ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; tweak_value[3] =  ( uint8_t )  ( n &gt;&gt; 24 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1870,18 +1870,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3388</v>
+        <v>117</v>
       </c>
       <c r="D43" t="n">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; WaitForPrecharge (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1904,18 +1904,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3325</v>
+        <v>1145</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>&lt;start&gt; GQuark r_crypt_error_quark ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint32_t block_start ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1304</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>&lt;start&gt; tweak_value[3] =  ( uint8_t )  ( n &gt;&gt; 24 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; Nop (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1972,18 +1972,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>117</v>
+        <v>2018</v>
       </c>
       <c r="D46" t="n">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>&lt;start&gt; WaitForPrecharge (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2006,18 +2006,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1145</v>
+        <v>2372</v>
       </c>
       <c r="D47" t="n">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint32_t block_start ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2044,14 +2044,14 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D48" t="n">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>&lt;start&gt; Nop (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; LED_SET ( LED_OFF )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2078,14 +2078,14 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2018</v>
+        <v>1731</v>
       </c>
       <c r="D49" t="n">
-        <v>528</v>
+        <v>187</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         NULL == iotx_http_context_bak || &lt;end&gt;</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2108,18 +2108,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2372</v>
+        <v>1029</v>
       </c>
       <c r="D50" t="n">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2142,18 +2142,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>107</v>
+        <v>860</v>
       </c>
       <c r="D51" t="n">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>&lt;start&gt; LED_SET ( LED_OFF )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; rt_size_t rt_i2c_master_send ( struct rt_i2c_bus* bus ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2176,18 +2176,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1731</v>
+        <v>1019</v>
       </c>
       <c r="D52" t="n">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         NULL == iotx_http_context_bak || &lt;end&gt;</t>
+          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; seq ;  i++ )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2210,18 +2210,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1029</v>
+        <v>3752</v>
       </c>
       <c r="D53" t="n">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; output[i] = password ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2244,18 +2244,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>860</v>
+        <v>2084</v>
       </c>
       <c r="D54" t="n">
-        <v>118</v>
+        <v>602</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>&lt;start&gt; rt_size_t rt_i2c_master_send ( struct rt_i2c_bus* bus ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2282,14 +2282,14 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1019</v>
+        <v>1490</v>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>690</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; seq ;  i++ )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2312,18 +2312,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2581</v>
+        <v>3379</v>
       </c>
       <c r="D56" t="n">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2333,11 +2333,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2350,14 +2350,14 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2923</v>
+        <v>2503</v>
       </c>
       <c r="D57" t="n">
-        <v>747</v>
+        <v>190</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         vmc_data[i] =  ( uint8_t )  ( vmc_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2367,11 +2367,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2380,18 +2380,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3752</v>
+        <v>4060</v>
       </c>
       <c r="D58" t="n">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>&lt;start&gt; output[i] = password ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  ( ESP8266_Send_Answer ( at_cwmode ,  ok )  )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2414,18 +2414,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2084</v>
+        <v>3288</v>
       </c>
       <c r="D59" t="n">
-        <v>602</v>
+        <v>160</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2448,18 +2448,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1490</v>
+        <v>4669</v>
       </c>
       <c r="D60" t="n">
-        <v>690</v>
+        <v>151</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;         else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2482,18 +2482,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3379</v>
+        <v>1102</v>
       </c>
       <c r="D61" t="n">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint8_t block_offset ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2516,18 +2516,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2503</v>
+        <v>3712</v>
       </c>
       <c r="D62" t="n">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         vmc_data[i] =  ( uint8_t )  ( vmc_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( strncmp ( output ,  passwordCheck ,  PASS_LENGHT )  ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2550,18 +2550,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4060</v>
+        <v>1901</v>
       </c>
       <c r="D63" t="n">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  ( ESP8266_Send_Answer ( at_cwmode ,  ok )  )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                        "default" ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2584,18 +2584,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3288</v>
+        <v>3737</v>
       </c>
       <c r="D64" t="n">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; _delay_ms ( 1500 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2618,18 +2618,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4669</v>
+        <v>377</v>
       </c>
       <c r="D65" t="n">
-        <v>151</v>
+        <v>455</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         else &lt;end&gt;</t>
+          <t>&lt;start&gt; NOT_STARTED_DISK_FULL       = 5 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2652,18 +2652,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1102</v>
+        <v>4566</v>
       </c>
       <c r="D66" t="n">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint8_t block_offset ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;atmel_start.h&gt; &lt;end&gt;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2686,18 +2686,18 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3712</v>
+        <v>4722</v>
       </c>
       <c r="D67" t="n">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( strncmp ( output ,  passwordCheck ,  PASS_LENGHT )  ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;             status = ATCA_SUCCESS ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2724,14 +2724,14 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1901</v>
+        <v>1961</v>
       </c>
       <c r="D68" t="n">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                        "default" ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( !pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2754,18 +2754,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3737</v>
+        <v>2352</v>
       </c>
       <c r="D69" t="n">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>&lt;start&gt; _delay_ms ( 1500 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2788,18 +2788,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>377</v>
+        <v>3920</v>
       </c>
       <c r="D70" t="n">
-        <v>455</v>
+        <v>111</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>&lt;start&gt; NOT_STARTED_DISK_FULL       = 5 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt; delay ( 1000 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2822,18 +2822,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4566</v>
+        <v>2473</v>
       </c>
       <c r="D71" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;atmel_start.h&gt; &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2856,18 +2856,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4722</v>
+        <v>3295</v>
       </c>
       <c r="D72" t="n">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             status = ATCA_SUCCESS ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Status = ecc_mul_double (  ( digit_t* )  ( Signature+32 )  ,  A ,   ( digit_t* ) h ,  A )  ;        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2890,18 +2890,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1961</v>
+        <v>3344</v>
       </c>
       <c r="D73" t="n">
-        <v>469</v>
+        <v>47</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( !pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; g_autoptr ( EVP_CIPHER_CTX )  ctx = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2924,18 +2924,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2352</v>
+        <v>2122</v>
       </c>
       <c r="D74" t="n">
-        <v>119</v>
+        <v>641</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2958,18 +2958,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3920</v>
+        <v>2984</v>
       </c>
       <c r="D75" t="n">
-        <v>111</v>
+        <v>830</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>&lt;start&gt; delay ( 1000 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2992,18 +2992,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2473</v>
+        <v>2261</v>
       </c>
       <c r="D76" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0xfd , 0xff , 0x81 , 0xf0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3026,18 +3026,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3295</v>
+        <v>4320</v>
       </c>
       <c r="D77" t="n">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Status = ecc_mul_double (  ( digit_t* )  ( Signature+32 )  ,  A ,   ( digit_t* ) h ,  A )  ;        &lt;end&gt;</t>
+          <t>&lt;start&gt;     PcdAntennaOff (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3060,18 +3060,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3344</v>
+        <v>1990</v>
       </c>
       <c r="D78" t="n">
-        <v>47</v>
+        <v>498</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_autoptr ( EVP_CIPHER_CTX )  ctx = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3094,18 +3094,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2122</v>
+        <v>2901</v>
       </c>
       <c r="D79" t="n">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3128,14 +3128,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2984</v>
+        <v>1475</v>
       </c>
       <c r="D80" t="n">
-        <v>830</v>
+        <v>674</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3162,18 +3162,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2261</v>
+        <v>3108</v>
       </c>
       <c r="D81" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0xfd , 0xff , 0x81 , 0xf0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3183,11 +3183,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3196,18 +3196,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4320</v>
+        <v>4618</v>
       </c>
       <c r="D82" t="n">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     PcdAntennaOff (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         nonce_params.rand_out = rand_out ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3230,18 +3230,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1990</v>
+        <v>4405</v>
       </c>
       <c r="D83" t="n">
-        <v>498</v>
+        <v>33</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "../build/include/sdkconfig.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3264,18 +3264,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2901</v>
+        <v>3938</v>
       </c>
       <c r="D84" t="n">
-        <v>720</v>
+        <v>129</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt;                     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3298,18 +3298,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1475</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>674</v>
+        <v>147</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; static void UsbWrite ( const void *buffer ,  unsigned int len )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3332,18 +3332,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4618</v>
+        <v>3690</v>
       </c>
       <c r="D86" t="n">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         nonce_params.rand_out = rand_out ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3366,18 +3366,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4405</v>
+        <v>3484</v>
       </c>
       <c r="D87" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "../build/include/sdkconfig.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; unsigned char keypad[4][4] = {{'1' , '4' , '7' , '*'} , {'2' , '5' , '8' , '0'} , {'3' , '6' , '9' , '#'} , {'A' , 'B' , 'C' , 'D'}} ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3400,18 +3400,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3938</v>
+        <v>4376</v>
       </c>
       <c r="D88" t="n">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     } &lt;end&gt;</t>
+          <t>&lt;start&gt;                 OLED_DrawPoint ( x + 2 + offsetx ,  y ,  0 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3434,18 +3434,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>973</v>
       </c>
       <c r="D89" t="n">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static void UsbWrite ( const void *buffer ,  unsigned int len )  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3468,18 +3468,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3690</v>
+        <v>806</v>
       </c>
       <c r="D90" t="n">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; rt_err_t rt_i2c_bus_attach_device ( struct rt_i2c_device* device ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3502,18 +3502,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3484</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>&lt;start&gt; unsigned char keypad[4][4] = {{'1' , '4' , '7' , '*'} , {'2' , '5' , '8' , '0'} , {'3' , '6' , '9' , '#'} , {'A' , 'B' , 'C' , 'D'}} ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "Peripherals/Rtc.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3536,18 +3536,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4376</v>
+        <v>3400</v>
       </c>
       <c r="D92" t="n">
-        <v>415</v>
+        <v>111</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 OLED_DrawPoint ( x + 2 + offsetx ,  y ,  0 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3570,18 +3570,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>973</v>
+        <v>435</v>
       </c>
       <c r="D93" t="n">
-        <v>231</v>
+        <v>521</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3604,18 +3604,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>806</v>
+        <v>4458</v>
       </c>
       <c r="D94" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>&lt;start&gt; rt_err_t rt_i2c_bus_attach_device ( struct rt_i2c_device* device ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;             wifi_connection (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3638,18 +3638,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>1512</v>
       </c>
       <c r="D95" t="n">
-        <v>37</v>
+        <v>715</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "Peripherals/Rtc.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( memcmp ( &amp; ( what_storage_should_be[i] )  ,  buffer ,  128 )  )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3672,18 +3672,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3400</v>
+        <v>3725</v>
       </c>
       <c r="D96" t="n">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_clrscr (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3706,18 +3706,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>435</v>
+        <v>4305</v>
       </c>
       <c r="D97" t="n">
-        <v>521</v>
+        <v>342</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt; void RC522_System_Init ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3740,18 +3740,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4458</v>
+        <v>1773</v>
       </c>
       <c r="D98" t="n">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             wifi_connection (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto err ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3778,14 +3778,14 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1512</v>
+        <v>979</v>
       </c>
       <c r="D99" t="n">
-        <v>715</v>
+        <v>30</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( memcmp ( &amp; ( what_storage_should_be[i] )  ,  buffer ,  128 )  )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "test_helpers.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3808,18 +3808,18 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3725</v>
+        <v>1886</v>
       </c>
       <c r="D100" t="n">
-        <v>269</v>
+        <v>372</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_clrscr (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       iotx_http_context-&gt;p_devinfo-&gt;device_name ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3842,18 +3842,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4305</v>
+        <v>1551</v>
       </c>
       <c r="D101" t="n">
-        <v>342</v>
+        <v>756</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RC522_System_Init ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3880,14 +3880,14 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1773</v>
+        <v>2082</v>
       </c>
       <c r="D102" t="n">
-        <v>235</v>
+        <v>600</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto err ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "IOT_HTTP_SendMessage request_payload NULL!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3910,18 +3910,18 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>979</v>
+        <v>2139</v>
       </c>
       <c r="D103" t="n">
-        <v>30</v>
+        <v>659</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "test_helpers.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;         httpclient_close ( httpc )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3944,18 +3944,18 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1886</v>
+        <v>2622</v>
       </c>
       <c r="D104" t="n">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       iotx_http_context-&gt;p_devinfo-&gt;device_name ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_Peek ( uint16_t *data )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3978,18 +3978,18 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1551</v>
+        <v>2891</v>
       </c>
       <c r="D105" t="n">
-        <v>756</v>
+        <v>708</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4012,18 +4012,18 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2082</v>
+        <v>2809</v>
       </c>
       <c r="D106" t="n">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "IOT_HTTP_SendMessage request_payload NULL!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     periph_id[29] = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2139</v>
+        <v>369</v>
       </c>
       <c r="D107" t="n">
-        <v>659</v>
+        <v>447</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         httpclient_close ( httpc )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4080,18 +4080,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2622</v>
+        <v>3545</v>
       </c>
       <c r="D108" t="n">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_Peek ( uint16_t *data )  &lt;end&gt;</t>
+          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4114,18 +4114,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2891</v>
+        <v>1405</v>
       </c>
       <c r="D109" t="n">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; free ( compare )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4148,18 +4148,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2809</v>
+        <v>4638</v>
       </c>
       <c r="D110" t="n">
-        <v>596</v>
+        <v>117</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     periph_id[29] = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4182,18 +4182,18 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>369</v>
+        <v>1993</v>
       </c>
       <c r="D111" t="n">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>&lt;start&gt; {  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( NULL == pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4216,18 +4216,18 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3545</v>
+        <v>2618</v>
       </c>
       <c r="D112" t="n">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_Read ( uint16_t *data )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1405</v>
+        <v>2272</v>
       </c>
       <c r="D113" t="n">
-        <v>598</v>
+        <v>39</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>&lt;start&gt; free ( compare )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0xf8 , 0x0 , 0xf , 0x7 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4284,18 +4284,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4638</v>
+        <v>1678</v>
       </c>
       <c r="D114" t="n">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4318,18 +4318,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1993</v>
+        <v>4699</v>
       </c>
       <c r="D115" t="n">
-        <v>501</v>
+        <v>190</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( NULL == pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;         { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -4352,18 +4352,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2618</v>
+        <v>646</v>
       </c>
       <c r="D116" t="n">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_Read ( uint16_t *data )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "dhsender_queue.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4386,18 +4386,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2272</v>
+        <v>832</v>
       </c>
       <c r="D117" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0xf8 , 0x0 , 0xf , 0x7 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;                           rt_uint16_t addr ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4420,18 +4420,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1678</v>
+        <v>4158</v>
       </c>
       <c r="D118" t="n">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         } &lt;end&gt;</t>
+          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4454,18 +4454,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4699</v>
+        <v>344</v>
       </c>
       <c r="D119" t="n">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         { &lt;end&gt;</t>
+          <t>&lt;start&gt;             char c0 ,  c1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4488,18 +4488,18 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>646</v>
+        <v>1489</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>689</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "dhsender_queue.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4522,18 +4522,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>832</v>
+        <v>351</v>
       </c>
       <c r="D121" t="n">
-        <v>90</v>
+        <v>428</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                           rt_uint16_t addr ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;             else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4556,18 +4556,18 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4158</v>
+        <v>2221</v>
       </c>
       <c r="D122" t="n">
-        <v>191</v>
+        <v>755</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; do_exit: &lt;end&gt;</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4590,18 +4590,18 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>344</v>
+        <v>1783</v>
       </c>
       <c r="D123" t="n">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             char c0 ,  c1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4624,18 +4624,18 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1489</v>
+        <v>2780</v>
       </c>
       <c r="D124" t="n">
-        <v>689</v>
+        <v>561</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>&lt;start&gt; else &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4662,14 +4662,14 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="D125" t="n">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             else &lt;end&gt;</t>
+          <t>&lt;start&gt;                 static unsigned long lastSampleTicks = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4692,18 +4692,18 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2221</v>
+        <v>2908</v>
       </c>
       <c r="D126" t="n">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>&lt;start&gt; do_exit: &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4726,18 +4726,18 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1783</v>
+        <v>2487</v>
       </c>
       <c r="D127" t="n">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_ResetHandler ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2780</v>
+        <v>3895</v>
       </c>
       <c r="D128" t="n">
-        <v>561</v>
+        <v>86</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;             case POST_DELETE: &lt;end&gt;</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4794,18 +4794,18 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>233</v>
+        <v>678</v>
       </c>
       <c r="D129" t="n">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 static unsigned long lastSampleTicks = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; enum flash_size_map size_map = system_get_flash_size_map (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4832,14 +4832,14 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2908</v>
+        <v>2721</v>
       </c>
       <c r="D130" t="n">
-        <v>730</v>
+        <v>488</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4862,18 +4862,18 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2487</v>
+        <v>1838</v>
       </c>
       <c r="D131" t="n">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_ResetHandler ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     iotx_http_context-&gt;auth_token_len = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4896,18 +4896,18 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3895</v>
+        <v>4584</v>
       </c>
       <c r="D132" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             case POST_DELETE: &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4930,18 +4930,18 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>678</v>
+        <v>2504</v>
       </c>
       <c r="D133" t="n">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>&lt;start&gt; enum flash_size_map size_map = system_get_flash_size_map (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4964,18 +4964,18 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2721</v>
+        <v>1282</v>
       </c>
       <c r="D134" t="n">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; 16 ;  i++ )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5002,14 +5002,14 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1838</v>
+        <v>1683</v>
       </c>
       <c r="D135" t="n">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     iotx_http_context-&gt;auth_token_len = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     return rc ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5032,18 +5032,18 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4584</v>
+        <v>1920</v>
       </c>
       <c r="D136" t="n">
-        <v>57</v>
+        <v>409</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     httpc =  ( httpclient_t * ) iotx_http_context-&gt;httpc ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5066,18 +5066,18 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2504</v>
+        <v>43</v>
       </c>
       <c r="D137" t="n">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     Reset (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5100,18 +5100,18 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1282</v>
+        <v>1975</v>
       </c>
       <c r="D138" t="n">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; 16 ;  i++ )  &lt;end&gt;</t>
+          <t>&lt;start&gt;      ( void ) response_message ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5134,18 +5134,18 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1683</v>
+        <v>2610</v>
       </c>
       <c r="D139" t="n">
-        <v>139</v>
+        <v>325</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     return rc ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         case VMC_EXPANSION_DIAGNOSTICS : ExpansionDiagnostics (  )  ;  break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5168,18 +5168,18 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1920</v>
+        <v>4571</v>
       </c>
       <c r="D140" t="n">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     httpc =  ( httpclient_t * ) iotx_http_context-&gt;httpc ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #endif &lt;end&gt;</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5202,18 +5202,18 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>43</v>
+        <v>2162</v>
       </c>
       <c r="D141" t="n">
-        <v>74</v>
+        <v>693</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Reset (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5236,18 +5236,18 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1975</v>
+        <v>3602</v>
       </c>
       <c r="D142" t="n">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      ( void ) response_message ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5270,18 +5270,18 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2610</v>
+        <v>1926</v>
       </c>
       <c r="D143" t="n">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         case VMC_EXPANSION_DIAGNOSTICS : ExpansionDiagnostics (  )  ;  break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     httpc_data.response_buf_len = HTTP_AUTH_RESP_MAX_LEN ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5304,18 +5304,18 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4571</v>
+        <v>4442</v>
       </c>
       <c r="D144" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #endif &lt;end&gt;</t>
+          <t>&lt;start&gt;                 .password = TEST_WIFI_PASSWORD ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5338,14 +5338,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2162</v>
+        <v>3193</v>
       </c>
       <c r="D145" t="n">
-        <v>693</v>
+        <v>59</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5372,18 +5372,18 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3602</v>
+        <v>1467</v>
       </c>
       <c r="D146" t="n">
-        <v>146</v>
+        <v>666</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; buffer[j] =  ( uint8_t ) rand (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5406,18 +5406,18 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1926</v>
+        <v>4302</v>
       </c>
       <c r="D147" t="n">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     httpc_data.response_buf_len = HTTP_AUTH_RESP_MAX_LEN ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5444,14 +5444,14 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4442</v>
+        <v>4542</v>
       </c>
       <c r="D148" t="n">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 .password = TEST_WIFI_PASSWORD ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3193</v>
+        <v>930</v>
       </c>
       <c r="D149" t="n">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     msgs.len = 2 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5508,18 +5508,18 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1467</v>
+        <v>2128</v>
       </c>
       <c r="D150" t="n">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>&lt;start&gt; buffer[j] =  ( uint8_t ) rand (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                   IOTX_HTTP_ONLINE_SERVER_PORT ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5546,14 +5546,14 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4302</v>
+        <v>4256</v>
       </c>
       <c r="D151" t="n">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 HexToStr ( cardIDChar ,  9 ,  SelectedSnr ,  4 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5580,14 +5580,14 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4542</v>
+        <v>4422</v>
       </c>
       <c r="D152" t="n">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( uxBits &amp; CONNECTED_BIT )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -5610,18 +5610,18 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>930</v>
+        <v>3876</v>
       </c>
       <c r="D153" t="n">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     msgs.len = 2 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5648,14 +5648,14 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2128</v>
+        <v>1676</v>
       </c>
       <c r="D154" t="n">
-        <v>648</v>
+        <v>132</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                   IOTX_HTTP_ONLINE_SERVER_PORT ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 rc++ ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5678,18 +5678,18 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4256</v>
+        <v>58</v>
       </c>
       <c r="D155" t="n">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                 HexToStr ( cardIDChar ,  9 ,  SelectedSnr ,  4 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5712,18 +5712,18 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4422</v>
+        <v>277</v>
       </c>
       <c r="D156" t="n">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( uxBits &amp; CONNECTED_BIT )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     FtlShutdown (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5746,18 +5746,18 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3876</v>
+        <v>1285</v>
       </c>
       <c r="D157" t="n">
-        <v>67</v>
+        <v>473</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt; tweak_key[i] =  ( uint8_t ) value ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5780,18 +5780,18 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1676</v>
+        <v>238</v>
       </c>
       <c r="D158" t="n">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 rc++ ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     accel_t accelSample ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5814,18 +5814,18 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>58</v>
+        <v>3168</v>
       </c>
       <c r="D159" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     ecc_mul_fixed (  ( digit_t* ) k ,  P )  ;            &lt;end&gt;</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5848,18 +5848,18 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>277</v>
+        <v>4469</v>
       </c>
       <c r="D160" t="n">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     FtlShutdown (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             xEventGroupClearBits ( wifi_event_group ,  CONNECTED_BIT )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1285</v>
+        <v>1688</v>
       </c>
       <c r="D161" t="n">
-        <v>473</v>
+        <v>144</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>&lt;start&gt; tweak_key[i] =  ( uint8_t ) value ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5916,18 +5916,18 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>238</v>
+        <v>4065</v>
       </c>
       <c r="D162" t="n">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     accel_t accelSample ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5950,18 +5950,18 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3168</v>
+        <v>152</v>
       </c>
       <c r="D163" t="n">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     ecc_mul_fixed (  ( digit_t* ) k ,  P )  ;            &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( !USB_BUS_SENSE )        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5984,18 +5984,18 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4469</v>
+        <v>1633</v>
       </c>
       <c r="D164" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             xEventGroupClearBits ( wifi_event_group ,  CONNECTED_BIT )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     IOTX_HTTP_HEADER_PASSWORD_STR \ &lt;end&gt;</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6018,18 +6018,18 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1688</v>
+        <v>3199</v>
       </c>
       <c r="D165" t="n">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     clear_words (  ( unsigned int* ) PublicKey ,  256/ ( sizeof ( unsigned int ) *8 )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6052,18 +6052,18 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>4065</v>
+        <v>2727</v>
       </c>
       <c r="D166" t="n">
-        <v>97</v>
+        <v>501</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     MDB_Send ( CSH_SESSION_CANCEL_REQUEST )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6086,18 +6086,18 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>152</v>
+        <v>1772</v>
       </c>
       <c r="D167" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( !USB_BUS_SENSE )        &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "Allocate memory for auth token failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -6124,14 +6124,14 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3590</v>
+        <v>3754</v>
       </c>
       <c r="D168" t="n">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( doorOpen == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_puts ( &amp;output[i] )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6141,11 +6141,11 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -6154,18 +6154,18 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1633</v>
+        <v>2551</v>
       </c>
       <c r="D169" t="n">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     IOTX_HTTP_HEADER_PASSWORD_STR \ &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6188,18 +6188,18 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3199</v>
+        <v>4186</v>
       </c>
       <c r="D170" t="n">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     clear_words (  ( unsigned int* ) PublicKey ,  256/ ( sizeof ( unsigned int ) *8 )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     ws2812bSetAll ( RED )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6222,18 +6222,18 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2727</v>
+        <v>145</v>
       </c>
       <c r="D171" t="n">
-        <v>501</v>
+        <v>203</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     MDB_Send ( CSH_SESSION_CANCEL_REQUEST )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Reset (  )  ;                  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6256,18 +6256,18 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1772</v>
+        <v>2390</v>
       </c>
       <c r="D172" t="n">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "Allocate memory for auth token failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6290,18 +6290,18 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3754</v>
+        <v>2380</v>
       </c>
       <c r="D173" t="n">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_puts ( &amp;output[i] )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6324,18 +6324,18 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2551</v>
+        <v>227</v>
       </c>
       <c r="D174" t="n">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6358,18 +6358,18 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4186</v>
+        <v>562</v>
       </c>
       <c r="D175" t="n">
-        <v>219</v>
+        <v>676</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     ws2812bSetAll ( RED )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6392,18 +6392,18 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>145</v>
+        <v>2065</v>
       </c>
       <c r="D176" t="n">
-        <v>203</v>
+        <v>583</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Reset (  )  ;                  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "iotx_http_context or msg_param NULL pointer!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6426,18 +6426,18 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2390</v>
+        <v>1044</v>
       </c>
       <c r="D177" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; xexEnDecrypt ( out ,  in ,  n ,  seq ,  tweak_key ,  encrypt_key ,  true )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6460,18 +6460,18 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2380</v>
+        <v>3246</v>
       </c>
       <c r="D178" t="n">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;     Montgomery_multiply_mod_order ( S ,  H ,  S )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6494,18 +6494,18 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>227</v>
+        <v>1396</v>
       </c>
       <c r="D179" t="n">
-        <v>294</v>
+        <v>589</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt; printBigEndian16 ( plaintext )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6528,18 +6528,18 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>562</v>
+        <v>817</v>
       </c>
       <c r="D180" t="n">
-        <v>676</v>
+        <v>73</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             } &lt;end&gt;</t>
+          <t>&lt;start&gt;         device-&gt;bus =  ( struct rt_i2c_bus* ) bus ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6562,18 +6562,18 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2065</v>
+        <v>2257</v>
       </c>
       <c r="D181" t="n">
-        <v>583</v>
+        <v>24</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "iotx_http_context or msg_param NULL pointer!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0x7 , 0xff , 0xfe , 0x0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6596,18 +6596,18 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1044</v>
+        <v>2935</v>
       </c>
       <c r="D182" t="n">
-        <v>151</v>
+        <v>759</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>&lt;start&gt; xexEnDecrypt ( out ,  in ,  n ,  seq ,  tweak_key ,  encrypt_key ,  true )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6630,18 +6630,18 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3246</v>
+        <v>163</v>
       </c>
       <c r="D183" t="n">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Montgomery_multiply_mod_order ( S ,  H ,  S )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( FSInit (  ) !=TRUE )                            &lt;end&gt;</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6651,11 +6651,11 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -6664,18 +6664,18 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1396</v>
+        <v>2879</v>
       </c>
       <c r="D184" t="n">
-        <v>589</v>
+        <v>688</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>&lt;start&gt; printBigEndian16 ( plaintext )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 3 ;  ++i )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6698,18 +6698,18 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>817</v>
+        <v>2581</v>
       </c>
       <c r="D185" t="n">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         device-&gt;bus =  ( struct rt_i2c_bus* ) bus ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6719,11 +6719,11 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6732,18 +6732,18 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2257</v>
+        <v>4450</v>
       </c>
       <c r="D186" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0x7 , 0xff , 0xfe , 0x0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6770,14 +6770,14 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2935</v>
+        <v>2661</v>
       </c>
       <c r="D187" t="n">
-        <v>759</v>
+        <v>401</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6804,14 +6804,14 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2879</v>
+        <v>2632</v>
       </c>
       <c r="D188" t="n">
-        <v>688</v>
+        <v>370</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 3 ;  ++i )  &lt;end&gt;</t>
+          <t>&lt;start&gt; void Reset ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6834,18 +6834,18 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4450</v>
+        <v>4120</v>
       </c>
       <c r="D189" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         OLED_ShowString ( 0 ,  48 ,  "......" ,  16 ,  1 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2661</v>
+        <v>2171</v>
       </c>
       <c r="D190" t="n">
-        <v>401</v>
+        <v>702</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;             iotx_http_context-&gt;is_authed = IOT_FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6906,14 +6906,14 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2632</v>
+        <v>2768</v>
       </c>
       <c r="D191" t="n">
-        <v>370</v>
+        <v>546</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void Reset ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6936,18 +6936,18 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4120</v>
+        <v>2882</v>
       </c>
       <c r="D192" t="n">
-        <v>153</v>
+        <v>691</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         OLED_ShowString ( 0 ,  48 ,  "......" ,  16 ,  1 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         vend_data[i] =  ( uint8_t )  ( vend_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6970,18 +6970,18 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2171</v>
+        <v>70</v>
       </c>
       <c r="D193" t="n">
-        <v>702</v>
+        <v>110</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             iotx_http_context-&gt;is_authed = IOT_FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     LoggerGyroTasks (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7004,18 +7004,18 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2768</v>
+        <v>1216</v>
       </c>
       <c r="D194" t="n">
-        <v>546</v>
+        <v>399</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; test_number = 1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7038,18 +7038,18 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2882</v>
+        <v>4511</v>
       </c>
       <c r="D195" t="n">
-        <v>691</v>
+        <v>144</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         vend_data[i] =  ( uint8_t )  ( vend_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;         sleep ( 1 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7072,18 +7072,18 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>70</v>
+        <v>3968</v>
       </c>
       <c r="D196" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LoggerGyroTasks (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                         turnOnWifiChip ( FALSE )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7106,18 +7106,18 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1216</v>
+        <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>399</v>
+        <v>526</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>&lt;start&gt; test_number = 1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( SUCCESS_RETURN != ret )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -7140,18 +7140,18 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4511</v>
+        <v>4323</v>
       </c>
       <c r="D198" t="n">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         sleep ( 1 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     LED_ON ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7174,18 +7174,18 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3968</v>
+        <v>4718</v>
       </c>
       <c r="D199" t="n">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         turnOnWifiChip ( FALSE )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7208,18 +7208,18 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2016</v>
+        <v>1237</v>
       </c>
       <c r="D200" t="n">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( SUCCESS_RETURN != ret )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; seen_count = true ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -7242,18 +7242,18 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4323</v>
+        <v>24</v>
       </c>
       <c r="D201" t="n">
-        <v>360</v>
+        <v>53</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LED_ON ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "AX3 SelfTest.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7276,18 +7276,18 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4718</v>
+        <v>3326</v>
       </c>
       <c r="D202" t="n">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7310,18 +7310,18 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1237</v>
+        <v>1794</v>
       </c>
       <c r="D203" t="n">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>&lt;start&gt; seen_count = true ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "Allocate memory for iotx_http_context-&gt;httpc failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7344,18 +7344,18 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>24</v>
+        <v>2731</v>
       </c>
       <c r="D204" t="n">
-        <v>53</v>
+        <v>505</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "AX3 SelfTest.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7378,18 +7378,18 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3326</v>
+        <v>28</v>
       </c>
       <c r="D205" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; void RunLogging ( void )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7412,18 +7412,18 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3910</v>
+        <v>2014</v>
       </c>
       <c r="D206" t="n">
-        <v>101</v>
+        <v>523</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if ( lockFlag == FALSE ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7433,11 +7433,11 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -7446,18 +7446,18 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1794</v>
+        <v>545</v>
       </c>
       <c r="D207" t="n">
-        <v>258</v>
+        <v>657</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "Allocate memory for iotx_http_context-&gt;httpc failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7480,18 +7480,18 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2731</v>
+        <v>3338</v>
       </c>
       <c r="D208" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; memcpy ( iv ,  &amp;iv_val ,  sizeof ( guint64 )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7514,18 +7514,18 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>28</v>
+        <v>2364</v>
       </c>
       <c r="D209" t="n">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RunLogging ( void )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;    display.setCursor ( 20 , 50 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7548,18 +7548,18 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2014</v>
+        <v>864</v>
       </c>
       <c r="D210" t="n">
-        <v>523</v>
+        <v>122</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;                              rt_uint32_t count )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7582,18 +7582,18 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>545</v>
+        <v>3526</v>
       </c>
       <c r="D211" t="n">
-        <v>657</v>
+        <v>70</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             } &lt;end&gt;</t>
+          <t>&lt;start&gt; row = FIRST_ROW ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7616,18 +7616,18 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3338</v>
+        <v>346</v>
       </c>
       <c r="D212" t="n">
-        <v>24</v>
+        <v>423</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>&lt;start&gt; memcpy ( iv ,  &amp;iv_val ,  sizeof ( guint64 )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             if  ( inactive == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7637,11 +7637,11 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -7650,18 +7650,18 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2364</v>
+        <v>696</v>
       </c>
       <c r="D213" t="n">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>&lt;start&gt;    display.setCursor ( 20 , 50 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; case FLASH_SIZE_32M_MAP_1024_1024: &lt;end&gt;</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7684,18 +7684,18 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>864</v>
+        <v>3411</v>
       </c>
       <c r="D214" t="n">
         <v>122</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                              rt_uint32_t count )  &lt;end&gt;</t>
+          <t>&lt;start&gt; g_return_val_if_fail ( error == NULL || *error == NULL ,  FALSE )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7718,18 +7718,18 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3526</v>
+        <v>434</v>
       </c>
       <c r="D215" t="n">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>&lt;start&gt; row = FIRST_ROW ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7752,18 +7752,18 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>696</v>
+        <v>3969</v>
       </c>
       <c r="D216" t="n">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>&lt;start&gt; case FLASH_SIZE_32M_MAP_1024_1024: &lt;end&gt;</t>
+          <t>&lt;start&gt;                         lockDeadBolt ( TRUE )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7790,14 +7790,14 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3411</v>
+        <v>3380</v>
       </c>
       <c r="D217" t="n">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_return_val_if_fail ( error == NULL || *error == NULL ,  FALSE )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7820,18 +7820,18 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>434</v>
+        <v>4077</v>
       </c>
       <c r="D218" t="n">
-        <v>520</v>
+        <v>109</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     else &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7854,18 +7854,18 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3969</v>
+        <v>3055</v>
       </c>
       <c r="D219" t="n">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         lockDeadBolt ( TRUE )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7888,18 +7888,18 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3380</v>
+        <v>1021</v>
       </c>
       <c r="D220" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; doubleInGF ( delta )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7922,18 +7922,18 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4077</v>
+        <v>3591</v>
       </c>
       <c r="D221" t="n">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTC |= _BV ( 0 )  | _BV ( 1 )  | _BV ( 6 )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7956,18 +7956,18 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3055</v>
+        <v>380</v>
       </c>
       <c r="D222" t="n">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; NOT_STARTED_INITIAL_BATTERY = 8 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7990,18 +7990,18 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1021</v>
+        <v>3225</v>
       </c>
       <c r="D223" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>&lt;start&gt; doubleInGF ( delta )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8024,18 +8024,18 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3591</v>
+        <v>4536</v>
       </c>
       <c r="D224" t="n">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTC |= _BV ( 0 )  | _BV ( 1 )  | _BV ( 6 )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; #else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8058,18 +8058,18 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>380</v>
+        <v>1822</v>
       </c>
       <c r="D225" t="n">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>&lt;start&gt; NOT_STARTED_INITIAL_BATTERY = 8 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt;         return ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8092,18 +8092,18 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3225</v>
+        <v>4187</v>
       </c>
       <c r="D226" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8126,18 +8126,18 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4536</v>
+        <v>4337</v>
       </c>
       <c r="D227" t="n">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #else &lt;end&gt;</t>
+          <t>&lt;start&gt;     int i ,  j = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8160,18 +8160,18 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1822</v>
+        <v>642</v>
       </c>
       <c r="D228" t="n">
-        <v>287</v>
+        <v>770</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     return ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8194,18 +8194,18 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4187</v>
+        <v>3540</v>
       </c>
       <c r="D229" t="n">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; asm ( "NOP" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8228,18 +8228,18 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4337</v>
+        <v>2615</v>
       </c>
       <c r="D230" t="n">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     int i ,  j = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8262,18 +8262,18 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>642</v>
+        <v>3427</v>
       </c>
       <c r="D231" t="n">
-        <v>770</v>
+        <v>138</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     return ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; res = FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8296,18 +8296,18 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3540</v>
+        <v>235</v>
       </c>
       <c r="D232" t="n">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>&lt;start&gt; asm ( "NOP" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( lastSampleTicks == 0 )  { lastSampleTicks = now ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8317,11 +8317,11 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -8330,18 +8330,18 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2615</v>
+        <v>1744</v>
       </c>
       <c r="D233" t="n">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     iotx_http_t        *iotx_http_context ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8364,18 +8364,18 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3427</v>
+        <v>3208</v>
       </c>
       <c r="D234" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>&lt;start&gt; res = FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     unsigned char k[64] ,  r[64] ,  h[64] ,  *temp = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -8398,18 +8398,18 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1744</v>
+        <v>302</v>
       </c>
       <c r="D235" t="n">
-        <v>200</v>
+        <v>376</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     iotx_http_t        *iotx_http_context ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( inactive &gt; 3 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8419,11 +8419,11 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -8432,18 +8432,18 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3208</v>
+        <v>1669</v>
       </c>
       <c r="D236" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     unsigned char k[64] ,  r[64] ,  h[64] ,  *temp = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         switch  ( *++p )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8466,18 +8466,18 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1669</v>
+        <v>4764</v>
       </c>
       <c r="D237" t="n">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         switch  ( *++p )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8500,18 +8500,18 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4764</v>
+        <v>3472</v>
       </c>
       <c r="D238" t="n">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #define CONFIRM_SOUND 2 &lt;end&gt;</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8534,18 +8534,18 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3472</v>
+        <v>4184</v>
       </c>
       <c r="D239" t="n">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define CONFIRM_SOUND 2 &lt;end&gt;</t>
+          <t>&lt;start&gt;                     relay_off (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8568,18 +8568,18 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4184</v>
+        <v>3477</v>
       </c>
       <c r="D240" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     relay_off (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #define PASS_LENGHT 4 &lt;end&gt;</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8602,18 +8602,18 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3477</v>
+        <v>2657</v>
       </c>
       <c r="D241" t="n">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define PASS_LENGHT 4 &lt;end&gt;</t>
+          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8636,18 +8636,18 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2657</v>
+        <v>412</v>
       </c>
       <c r="D242" t="n">
-        <v>397</v>
+        <v>495</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void RunLogging ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8670,18 +8670,18 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>412</v>
+        <v>2725</v>
       </c>
       <c r="D243" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RunLogging ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; void SessionCancelRequest ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8704,18 +8704,18 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2725</v>
+        <v>1379</v>
       </c>
       <c r="D244" t="n">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void SessionCancelRequest ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8738,18 +8738,18 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1379</v>
+        <v>4713</v>
       </c>
       <c r="D245" t="n">
-        <v>572</v>
+        <v>206</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  (  ( status = publickey_validate ( true )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -8772,18 +8772,18 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4713</v>
+        <v>3592</v>
       </c>
       <c r="D246" t="n">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  (  ( status = publickey_validate ( true )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA &amp;= ~ ( _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H246" t="n">
@@ -8806,18 +8806,18 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3592</v>
+        <v>313</v>
       </c>
       <c r="D247" t="n">
-        <v>136</v>
+        <v>387</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA &amp;= ~ ( _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;                 { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8840,18 +8840,18 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>313</v>
+        <v>3217</v>
       </c>
       <c r="D248" t="n">
-        <v>387</v>
+        <v>86</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 { &lt;end&gt;</t>
+          <t>&lt;start&gt;      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8874,18 +8874,18 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3217</v>
+        <v>4445</v>
       </c>
       <c r="D249" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      &lt;end&gt;</t>
+          <t>&lt;start&gt;     Log_i ( "Setting WiFi configuration SSID %s..." ,  wifi_config.sta.ssid )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8908,18 +8908,18 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4445</v>
+        <v>3801</v>
       </c>
       <c r="D250" t="n">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Log_i ( "Setting WiFi configuration SSID %s..." ,  wifi_config.sta.ssid )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; TIMSK = _BV ( OCIE0 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8942,18 +8942,18 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3801</v>
+        <v>856</v>
       </c>
       <c r="D251" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>&lt;start&gt; TIMSK = _BV ( OCIE0 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         return 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8976,18 +8976,18 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>856</v>
+        <v>4643</v>
       </c>
       <c r="D252" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         sign_params.key_id = authority_key_slot ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9010,18 +9010,18 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4643</v>
+        <v>449</v>
       </c>
       <c r="D253" t="n">
-        <v>122</v>
+        <v>540</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         sign_params.key_id = authority_key_slot ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( settings.debuggingInfo &gt;= 1 || status.debugFlashCount &gt; 0 )  { LED_SET ( LED_YELLOW )  ;  if  ( status.debugFlashCount &gt; 0 )  status.debugFlashCount-- ;  Delay10us ( 5 )  ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -10166,18 +10166,18 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2049</v>
+        <v>3620</v>
       </c>
       <c r="D287" t="n">
-        <v>560</v>
+        <v>164</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     char               *pvalue = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -10187,11 +10187,11 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10200,18 +10200,18 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>271</v>
+        <v>2049</v>
       </c>
       <c r="D288" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     char               *pvalue = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -10234,18 +10234,18 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>3808</v>
+        <v>271</v>
       </c>
       <c r="D289" t="n">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_init ( LCD_DISP_ON )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10268,18 +10268,18 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>497</v>
+        <v>3808</v>
       </c>
       <c r="D290" t="n">
-        <v>596</v>
+        <v>352</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_init ( LCD_DISP_ON )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10302,18 +10302,18 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1630</v>
+        <v>497</v>
       </c>
       <c r="D291" t="n">
-        <v>73</v>
+        <v>596</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define IOTX_HTTP_HEADER_PASSWORD_STR   "password:" &lt;end&gt;</t>
+          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10336,18 +10336,18 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>3577</v>
+        <v>1630</v>
       </c>
       <c r="D292" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( flagWrongPass == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; #define IOTX_HTTP_HEADER_PASSWORD_STR   "password:" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10357,11 +10357,11 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -10404,18 +10404,18 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3771</v>
+        <v>467</v>
       </c>
       <c r="D294" t="n">
-        <v>315</v>
+        <v>562</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( doorOpen == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;         { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10425,11 +10425,11 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -10442,14 +10442,14 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>467</v>
+        <v>379</v>
       </c>
       <c r="D295" t="n">
-        <v>562</v>
+        <v>457</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         { &lt;end&gt;</t>
+          <t>&lt;start&gt; STOP_USB                    = 7 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10472,18 +10472,18 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>379</v>
+        <v>4517</v>
       </c>
       <c r="D296" t="n">
-        <v>457</v>
+        <v>151</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>&lt;start&gt; STOP_USB                    = 7 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt;     tzset (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10506,18 +10506,18 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4517</v>
+        <v>3850</v>
       </c>
       <c r="D297" t="n">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     tzset (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; char debug[20] ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10540,18 +10540,18 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3850</v>
+        <v>1574</v>
       </c>
       <c r="D298" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>&lt;start&gt; char debug[20] ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "http_debug.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10574,18 +10574,18 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1574</v>
+        <v>1370</v>
       </c>
       <c r="D299" t="n">
-        <v>14</v>
+        <v>563</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "http_debug.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10612,14 +10612,14 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1370</v>
+        <v>1131</v>
       </c>
       <c r="D300" t="n">
-        <v>563</v>
+        <v>292</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; block_offset = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10642,18 +10642,18 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1131</v>
+        <v>2685</v>
       </c>
       <c r="D301" t="n">
-        <v>292</v>
+        <v>426</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>&lt;start&gt; block_offset = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void DisplayRequest ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10676,18 +10676,18 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2685</v>
+        <v>191</v>
       </c>
       <c r="D302" t="n">
-        <v>426</v>
+        <v>256</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void DisplayRequest ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     GyroStartup (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10710,18 +10710,18 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>191</v>
+        <v>2749</v>
       </c>
       <c r="D303" t="n">
-        <v>256</v>
+        <v>524</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     GyroStartup (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                + vend_amount_H &lt;end&gt;</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10744,18 +10744,18 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2749</v>
+        <v>1888</v>
       </c>
       <c r="D304" t="n">
-        <v>524</v>
+        <v>374</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                + vend_amount_H &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10778,18 +10778,18 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1888</v>
+        <v>3595</v>
       </c>
       <c r="D305" t="n">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA |= _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10812,18 +10812,18 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3595</v>
+        <v>2760</v>
       </c>
       <c r="D306" t="n">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA |= _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; void VendDenied ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10846,18 +10846,18 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2760</v>
+        <v>1248</v>
       </c>
       <c r="D307" t="n">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void VendDenied ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10880,18 +10880,18 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1248</v>
+        <v>3915</v>
       </c>
       <c r="D308" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                             lockFlag = TRUE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10914,18 +10914,18 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3915</v>
+        <v>731</v>
       </c>
       <c r="D309" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             lockFlag = TRUE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; system_rtc_mem_write ( RESET_COUNTER_RTC_ADDRESS ,  &amp;counter ,  sizeof ( counter )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10948,18 +10948,18 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>731</v>
+        <v>471</v>
       </c>
       <c r="D310" t="n">
-        <v>115</v>
+        <v>566</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>&lt;start&gt; system_rtc_mem_write ( RESET_COUNTER_RTC_ADDRESS ,  &amp;counter ,  sizeof ( counter )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10982,18 +10982,18 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>471</v>
+        <v>2737</v>
       </c>
       <c r="D311" t="n">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;     uint8_t checksum = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -11016,18 +11016,18 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2737</v>
+        <v>1702</v>
       </c>
       <c r="D312" t="n">
-        <v>511</v>
+        <v>158</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     uint8_t checksum = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; static int http_report_func ( void *handle ,  const char *topic_name ,  int req_ack ,  void *data ,  int len )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -11050,18 +11050,18 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1702</v>
+        <v>1547</v>
       </c>
       <c r="D313" t="n">
-        <v>158</v>
+        <v>752</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int http_report_func ( void *handle ,  const char *topic_name ,  int req_ack ,  void *data ,  int len )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -11084,18 +11084,18 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1547</v>
+        <v>790</v>
       </c>
       <c r="D314" t="n">
-        <v>752</v>
+        <v>45</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     const char* bus_name )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -11118,18 +11118,18 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>790</v>
+        <v>3386</v>
       </c>
       <c r="D315" t="n">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     const char* bus_name )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( !EVP_CipherUpdate ( ctx ,  outbuf ,  &amp;outlen ,  inbuf ,  ENC_SEC_SIZE )  )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H315" t="n">
@@ -11156,14 +11156,14 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3386</v>
+        <v>3362</v>
       </c>
       <c r="D316" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( !EVP_CipherUpdate ( ctx ,  outbuf ,  &amp;outlen ,  inbuf ,  ENC_SEC_SIZE )  )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; g_assert ( EVP_CIPHER_CTX_iv_length ( ctx )  == 16 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H316" t="n">
@@ -11186,18 +11186,18 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3362</v>
+        <v>2083</v>
       </c>
       <c r="D317" t="n">
-        <v>68</v>
+        <v>601</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_assert ( EVP_CIPHER_CTX_iv_length ( ctx )  == 16 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -11220,18 +11220,18 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2083</v>
+        <v>3666</v>
       </c>
       <c r="D318" t="n">
-        <v>601</v>
+        <v>210</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; pot2 = VALUE_POT ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -11254,18 +11254,18 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3666</v>
+        <v>4506</v>
       </c>
       <c r="D319" t="n">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>&lt;start&gt; pot2 = VALUE_POT ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     int       retry       = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -11288,18 +11288,18 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>4506</v>
+        <v>2627</v>
       </c>
       <c r="D320" t="n">
-        <v>139</v>
+        <v>355</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     int       retry       = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint8_t MDB_DataCount  ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -11322,18 +11322,18 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2627</v>
+        <v>3347</v>
       </c>
       <c r="D321" t="n">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint8_t MDB_DataCount  ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; guint64 sector_count = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -11356,18 +11356,18 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3347</v>
+        <v>4168</v>
       </c>
       <c r="D322" t="n">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>&lt;start&gt; guint64 sector_count = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -11390,18 +11390,18 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4168</v>
+        <v>1620</v>
       </c>
       <c r="D323" t="n">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 } &lt;end&gt;</t>
+          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -11424,18 +11424,18 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1620</v>
+        <v>4557</v>
       </c>
       <c r="D324" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;stdio.h&gt; &lt;end&gt;</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -11458,18 +11458,18 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4557</v>
+        <v>49</v>
       </c>
       <c r="D325" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;stdio.h&gt; &lt;end&gt;</t>
+          <t>&lt;start&gt;     RtcTasks (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -11492,18 +11492,18 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>49</v>
+        <v>4706</v>
       </c>
       <c r="D326" t="n">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     RtcTasks (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  (  ( status = atcab_write_pubkey ( rotating_key_slot ,  public_key )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H326" t="n">
@@ -11526,18 +11526,18 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>4706</v>
+        <v>4414</v>
       </c>
       <c r="D327" t="n">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  (  ( status = atcab_write_pubkey ( rotating_key_slot ,  public_key )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H327" t="n">
@@ -11560,18 +11560,18 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4414</v>
+        <v>253</v>
       </c>
       <c r="D328" t="n">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                         printf ( "%d , %d , %d\r\n" ,  accelSample.x ,  accelSample.y ,  accelSample.z )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -11598,14 +11598,14 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="D329" t="n">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         printf ( "%d , %d , %d\r\n" ,  accelSample.x ,  accelSample.y ,  accelSample.z )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     restart = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -11628,18 +11628,18 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>157</v>
+        <v>3937</v>
       </c>
       <c r="D330" t="n">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     restart = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                         action = TIMEOUT_LOCK ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -11662,18 +11662,18 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3937</v>
+        <v>4350</v>
       </c>
       <c r="D331" t="n">
-        <v>128</v>
+        <v>389</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         action = TIMEOUT_LOCK ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; QRcode_free ( qrcode )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11696,18 +11696,18 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>4350</v>
+        <v>774</v>
       </c>
       <c r="D332" t="n">
-        <v>389</v>
+        <v>158</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>&lt;start&gt; QRcode_free ( qrcode )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; dh_gpio_init (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11730,18 +11730,18 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>774</v>
+        <v>2840</v>
       </c>
       <c r="D333" t="n">
-        <v>158</v>
+        <v>629</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>&lt;start&gt; dh_gpio_init (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11764,18 +11764,18 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2840</v>
+        <v>2145</v>
       </c>
       <c r="D334" t="n">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -11798,18 +11798,18 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2145</v>
+        <v>172</v>
       </c>
       <c r="D335" t="n">
-        <v>665</v>
+        <v>233</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11832,18 +11832,18 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>172</v>
+        <v>4041</v>
       </c>
       <c r="D336" t="n">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt;     strcat ( at_cwjap ,  "\" , \"" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -11866,18 +11866,18 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4041</v>
+        <v>268</v>
       </c>
       <c r="D337" t="n">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     strcat ( at_cwjap ,  "\" , \"" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         #ifdef FSFTL_READ_PREFETCH &lt;end&gt;</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11900,18 +11900,18 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>268</v>
+        <v>3989</v>
       </c>
       <c r="D338" t="n">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         #ifdef FSFTL_READ_PREFETCH &lt;end&gt;</t>
+          <t>&lt;start&gt; void RC522_System_Init ( void )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11934,18 +11934,18 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3989</v>
+        <v>1201</v>
       </c>
       <c r="D339" t="n">
-        <v>10</v>
+        <v>384</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RC522_System_Init ( void )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint8_t *compare ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11968,18 +11968,18 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1201</v>
+        <v>4283</v>
       </c>
       <c r="D340" t="n">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint8_t *compare ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     OLED_Clear (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -12002,18 +12002,18 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>4283</v>
+        <v>4633</v>
       </c>
       <c r="D341" t="n">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     OLED_Clear (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         gen_key_params.public_key_size = sizeof ( public_key )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -12036,18 +12036,18 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4633</v>
+        <v>3732</v>
       </c>
       <c r="D342" t="n">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         gen_key_params.public_key_size = sizeof ( public_key )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA ^= _BV ( 5 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -12070,18 +12070,18 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3732</v>
+        <v>1027</v>
       </c>
       <c r="D343" t="n">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA ^= _BV ( 5 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -12104,18 +12104,18 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1027</v>
+        <v>342</v>
       </c>
       <c r="D344" t="n">
-        <v>102</v>
+        <v>419</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;         else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -12138,18 +12138,18 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>342</v>
+        <v>4011</v>
       </c>
       <c r="D345" t="n">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         else &lt;end&gt;</t>
+          <t>&lt;start&gt;     OLED_ShowString ( 0 ,  16 ,  "RFID System" ,  16 ,  1 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -12172,18 +12172,18 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4011</v>
+        <v>3331</v>
       </c>
       <c r="D346" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     OLED_ShowString ( 0 ,  16 ,  "RFID System" ,  16 ,  1 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; static void iv_plain64 ( guint8 *iv ,  guint iv_size ,  guint64 sector )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -12206,18 +12206,18 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3331</v>
+        <v>4118</v>
       </c>
       <c r="D347" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static void iv_plain64 ( guint8 *iv ,  guint iv_size ,  guint64 sector )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         OLED_ShowString ( 0 ,  16 ,  "New Card Regist" ,  16 ,  1 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -12240,18 +12240,18 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>4118</v>
+        <v>1166</v>
       </c>
       <c r="D348" t="n">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         OLED_ShowString ( 0 ,  16 ,  "New Card Regist" ,  16 ,  1 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -12274,18 +12274,18 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1166</v>
+        <v>4074</v>
       </c>
       <c r="D349" t="n">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     OLED_Refresh (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -12308,18 +12308,18 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4074</v>
+        <v>2669</v>
       </c>
       <c r="D350" t="n">
-        <v>106</v>
+        <v>410</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     OLED_Refresh (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                + csh_config.maxResponseTime &lt;end&gt;</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -12342,18 +12342,18 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2669</v>
+        <v>2269</v>
       </c>
       <c r="D351" t="n">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                + csh_config.maxResponseTime &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x7 , 0xf , 0xff , 0xf8 , 0xf , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12376,18 +12376,18 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2269</v>
+        <v>2950</v>
       </c>
       <c r="D352" t="n">
-        <v>36</v>
+        <v>778</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x7 , 0xf , 0xff , 0xf8 , 0xf , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     csh_state = CSH_S_ENABLED ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -12410,18 +12410,18 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2950</v>
+        <v>4419</v>
       </c>
       <c r="D353" t="n">
-        <v>778</v>
+        <v>49</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     csh_state = CSH_S_ENABLED ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  ( cnt++ &lt; wait_cnt )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12444,18 +12444,18 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4419</v>
+        <v>2203</v>
       </c>
       <c r="D354" t="n">
-        <v>49</v>
+        <v>737</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  ( cnt++ &lt; wait_cnt )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -12478,18 +12478,18 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2203</v>
+        <v>776</v>
       </c>
       <c r="D355" t="n">
-        <v>737</v>
+        <v>160</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; dhap_init ( dhsettings_get_wifi_ssid (  )  ,  dhsettings_get_wifi_password (  )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12512,18 +12512,18 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>776</v>
+        <v>2500</v>
       </c>
       <c r="D356" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>&lt;start&gt; dhap_init ( dhsettings_get_wifi_ssid (  )  ,  dhsettings_get_wifi_password (  )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 6 ;  ++i )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12546,18 +12546,18 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2500</v>
+        <v>1464</v>
       </c>
       <c r="D357" t="n">
-        <v>187</v>
+        <v>662</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 6 ;  ++i )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -12580,18 +12580,18 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1464</v>
+        <v>3387</v>
       </c>
       <c r="D358" t="n">
-        <v>662</v>
+        <v>98</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; g_set_error ( error ,  R_CRYPT_ERROR ,  R_CRYPT_ERROR_FAILED ,  "EVP_CipherUpdate (  )  failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -12614,18 +12614,18 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3387</v>
+        <v>935</v>
       </c>
       <c r="D359" t="n">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_set_error ( error ,  R_CRYPT_ERROR ,  R_CRYPT_ERROR_FAILED ,  "EVP_CipherUpdate (  )  failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -12648,18 +12648,18 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>935</v>
+        <v>1517</v>
       </c>
       <c r="D360" t="n">
-        <v>193</v>
+        <v>720</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -12682,14 +12682,14 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1517</v>
+        <v>2911</v>
       </c>
       <c r="D361" t="n">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -12716,18 +12716,18 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2911</v>
+        <v>797</v>
       </c>
       <c r="D362" t="n">
-        <v>733</v>
+        <v>52</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;         bus-&gt;timeout = RT_TICK_PER_SECOND ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12750,18 +12750,18 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>797</v>
+        <v>3223</v>
       </c>
       <c r="D363" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         bus-&gt;timeout = RT_TICK_PER_SECOND ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12784,18 +12784,18 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3223</v>
+        <v>779</v>
       </c>
       <c r="D364" t="n">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12818,18 +12818,18 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>779</v>
+        <v>4290</v>
       </c>
       <c r="D365" t="n">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     OLED_Refresh (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12852,18 +12852,18 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4290</v>
+        <v>2213</v>
       </c>
       <c r="D366" t="n">
-        <v>325</v>
+        <v>747</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     OLED_Refresh (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H366" t="n">
@@ -12886,18 +12886,18 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2213</v>
+        <v>7</v>
       </c>
       <c r="D367" t="n">
-        <v>747</v>
+        <v>34</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H367" t="n">
@@ -12920,18 +12920,18 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>7</v>
+        <v>693</v>
       </c>
       <c r="D368" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
+          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12958,14 +12958,14 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="D369" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void user_rf_pre_init ( void )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12988,18 +12988,18 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>719</v>
+        <v>2333</v>
       </c>
       <c r="D370" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void user_rf_pre_init ( void )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     display.drawBitmap ( 30 , 35 , icon , 60 , 60 , GREEN )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -13022,18 +13022,18 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2333</v>
+        <v>4629</v>
       </c>
       <c r="D371" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     display.drawBitmap ( 30 , 35 , icon , 60 , 60 , GREEN )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         memset ( gen_key_other_data ,  0 ,  sizeof ( gen_key_other_data )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -13056,18 +13056,18 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4629</v>
+        <v>2543</v>
       </c>
       <c r="D372" t="n">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         memset ( gen_key_other_data ,  0 ,  sizeof ( gen_key_other_data )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         case CSH_VEND_DENIED            : VendDenied (  )  ;            break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -13090,18 +13090,18 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2543</v>
+        <v>3489</v>
       </c>
       <c r="D373" t="n">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         case CSH_VEND_DENIED            : VendDenied (  )  ;            break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; static int pot1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -13124,18 +13124,18 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3489</v>
+        <v>4624</v>
       </c>
       <c r="D374" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int pot1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -13158,18 +13158,18 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4624</v>
+        <v>447</v>
       </c>
       <c r="D375" t="n">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( USB_BUS_SENSE )  { stopCondition = NOT_STARTED_WAIT_USB ;  restart = 1 ;  break ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H375" t="n">
@@ -13192,18 +13192,18 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>447</v>
+        <v>4115</v>
       </c>
       <c r="D376" t="n">
-        <v>538</v>
+        <v>148</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( USB_BUS_SENSE )  { stopCondition = NOT_STARTED_WAIT_USB ;  restart = 1 ;  break ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -13217,7 +13217,7 @@
         </is>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H394" t="n">

--- a/dataset/vector1.xlsx
+++ b/dataset/vector1.xlsx
@@ -990,14 +990,14 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4062</v>
+        <v>4115</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1020,18 +1020,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3890</v>
+        <v>4062</v>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 pendingUserID = findEmptySpot (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1054,18 +1054,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1347</v>
+        <v>3890</v>
       </c>
       <c r="D19" t="n">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 pendingUserID = findEmptySpot (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1088,18 +1088,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1696</v>
+        <v>1347</v>
       </c>
       <c r="D20" t="n">
-        <v>152</v>
+        <v>539</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1122,18 +1122,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2834</v>
+        <v>1696</v>
       </c>
       <c r="D21" t="n">
-        <v>623</v>
+        <v>152</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     MDB_Send ( CSH_CMD_OUT_OF_SEQUENCE | CSH_ACK )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1156,18 +1156,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>987</v>
+        <v>2834</v>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>623</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "endian.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;     MDB_Send ( CSH_CMD_OUT_OF_SEQUENCE | CSH_ACK )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>717</v>
+        <v>987</v>
       </c>
       <c r="D23" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>&lt;start&gt; extern int rtc_mem_check ( int f )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "endian.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1224,18 +1224,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>462</v>
+        <v>717</v>
       </c>
       <c r="D24" t="n">
-        <v>556</v>
+        <v>101</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt; extern int rtc_mem_check ( int f )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1258,18 +1258,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4303</v>
+        <v>462</v>
       </c>
       <c r="D25" t="n">
-        <v>340</v>
+        <v>556</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1292,18 +1292,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2274</v>
+        <v>4303</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x1 , 0xe1 , 0xff , 0x83 , 0x83 , 0x80 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1326,18 +1326,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3488</v>
+        <v>2274</v>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int flagPot = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x1 , 0xe1 , 0xff , 0x83 , 0x83 , 0x80 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1360,18 +1360,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4572</v>
+        <v>3488</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #if defined ( ATMEL_START )  &lt;end&gt;</t>
+          <t>&lt;start&gt; static int flagPot = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1394,18 +1394,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3829</v>
+        <v>4572</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;p24Fxxxx.h&gt; &lt;end&gt;</t>
+          <t>&lt;start&gt; #if defined ( ATMEL_START )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1428,18 +1428,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1358</v>
+        <v>3829</v>
       </c>
       <c r="D30" t="n">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>&lt;start&gt; }  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;p24Fxxxx.h&gt; &lt;end&gt;</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1462,18 +1462,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2278</v>
+        <v>1358</v>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x7 , 0x1e , 0x0 , 0x78 , 0xe3 , 0x80 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; }  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1500,14 +1500,14 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2381</v>
+        <v>2278</v>
       </c>
       <c r="D32" t="n">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x7 , 0x1e , 0x0 , 0x78 , 0xe3 , 0x80 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1530,18 +1530,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>852</v>
+        <v>2381</v>
       </c>
       <c r="D33" t="n">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return ret ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1564,18 +1564,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1884</v>
+        <v>852</v>
       </c>
       <c r="D34" t="n">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       sign ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;         return ret ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1598,18 +1598,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1133</v>
+        <v>1884</v>
       </c>
       <c r="D35" t="n">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>&lt;start&gt; r = nonVolatileWrite ( ciphertext ,  partition ,  block_start ,  16 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       sign ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1632,18 +1632,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1932</v>
+        <v>1133</v>
       </c>
       <c r="D36" t="n">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; r = nonVolatileWrite ( ciphertext ,  partition ,  block_start ,  16 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1666,18 +1666,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3636</v>
+        <v>1932</v>
       </c>
       <c r="D37" t="n">
-        <v>180</v>
+        <v>429</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_puts ( "Otvoren sef!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1700,18 +1700,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4097</v>
+        <v>3636</v>
       </c>
       <c r="D38" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     char idCode[8] = "0000001" ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_puts ( "Otvoren sef!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1734,18 +1734,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3497</v>
+        <v>4097</v>
       </c>
       <c r="D39" t="n">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>&lt;start&gt; unsigned char column ,  row ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     char idCode[8] = "0000001" ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1768,18 +1768,18 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3388</v>
+        <v>3497</v>
       </c>
       <c r="D40" t="n">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; unsigned char column ,  row ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1806,14 +1806,14 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3325</v>
+        <v>3388</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>&lt;start&gt; GQuark r_crypt_error_quark ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1836,18 +1836,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1304</v>
+        <v>3325</v>
       </c>
       <c r="D42" t="n">
-        <v>493</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>&lt;start&gt; tweak_value[3] =  ( uint8_t )  ( n &gt;&gt; 24 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; GQuark r_crypt_error_quark ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1870,18 +1870,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>117</v>
+        <v>1304</v>
       </c>
       <c r="D43" t="n">
-        <v>167</v>
+        <v>493</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>&lt;start&gt; WaitForPrecharge (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; tweak_value[3] =  ( uint8_t )  ( n &gt;&gt; 24 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1904,18 +1904,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1145</v>
+        <v>117</v>
       </c>
       <c r="D44" t="n">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint32_t block_start ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; WaitForPrecharge (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>1145</v>
       </c>
       <c r="D45" t="n">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>&lt;start&gt; Nop (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint32_t block_start ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1972,18 +1972,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2018</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>528</v>
+        <v>72</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; Nop (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2006,18 +2006,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2372</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="n">
-        <v>139</v>
+        <v>528</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2040,18 +2040,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>107</v>
+        <v>2372</v>
       </c>
       <c r="D48" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>&lt;start&gt; LED_SET ( LED_OFF )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2074,18 +2074,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1731</v>
+        <v>107</v>
       </c>
       <c r="D49" t="n">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         NULL == iotx_http_context_bak || &lt;end&gt;</t>
+          <t>&lt;start&gt; LED_SET ( LED_OFF )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2108,18 +2108,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1029</v>
+        <v>1731</v>
       </c>
       <c r="D50" t="n">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         NULL == iotx_http_context_bak || &lt;end&gt;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2142,18 +2142,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>860</v>
+        <v>1029</v>
       </c>
       <c r="D51" t="n">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>&lt;start&gt; rt_size_t rt_i2c_master_send ( struct rt_i2c_bus* bus ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2176,18 +2176,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1019</v>
+        <v>860</v>
       </c>
       <c r="D52" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; seq ;  i++ )  &lt;end&gt;</t>
+          <t>&lt;start&gt; rt_size_t rt_i2c_master_send ( struct rt_i2c_bus* bus ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2210,18 +2210,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3752</v>
+        <v>1019</v>
       </c>
       <c r="D53" t="n">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>&lt;start&gt; output[i] = password ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; seq ;  i++ )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2244,18 +2244,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2084</v>
+        <v>3752</v>
       </c>
       <c r="D54" t="n">
-        <v>602</v>
+        <v>296</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; output[i] = password ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2278,18 +2278,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1490</v>
+        <v>2084</v>
       </c>
       <c r="D55" t="n">
-        <v>690</v>
+        <v>602</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2312,18 +2312,18 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3379</v>
+        <v>1490</v>
       </c>
       <c r="D56" t="n">
-        <v>89</v>
+        <v>690</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2346,18 +2346,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2503</v>
+        <v>3379</v>
       </c>
       <c r="D57" t="n">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         vmc_data[i] =  ( uint8_t )  ( vmc_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; return FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2380,18 +2380,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4060</v>
+        <v>2503</v>
       </c>
       <c r="D58" t="n">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  ( ESP8266_Send_Answer ( at_cwmode ,  ok )  )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;         vmc_data[i] =  ( uint8_t )  ( vmc_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2414,18 +2414,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3288</v>
+        <v>4060</v>
       </c>
       <c r="D59" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  ( ESP8266_Send_Answer ( at_cwmode ,  ok )  )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2448,18 +2448,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4669</v>
+        <v>3288</v>
       </c>
       <c r="D60" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         else &lt;end&gt;</t>
+          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2482,18 +2482,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1102</v>
+        <v>4669</v>
       </c>
       <c r="D61" t="n">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint8_t block_offset ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2516,18 +2516,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3712</v>
+        <v>1102</v>
       </c>
       <c r="D62" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( strncmp ( output ,  passwordCheck ,  PASS_LENGHT )  ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; uint8_t block_offset ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2550,18 +2550,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1901</v>
+        <v>3712</v>
       </c>
       <c r="D63" t="n">
-        <v>387</v>
+        <v>256</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                        "default" ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( strncmp ( output ,  passwordCheck ,  PASS_LENGHT )  ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2584,18 +2584,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3737</v>
+        <v>1901</v>
       </c>
       <c r="D64" t="n">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&lt;start&gt; _delay_ms ( 1500 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                        "default" ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2618,18 +2618,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>377</v>
+        <v>3737</v>
       </c>
       <c r="D65" t="n">
-        <v>455</v>
+        <v>281</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>&lt;start&gt; NOT_STARTED_DISK_FULL       = 5 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt; _delay_ms ( 1500 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2652,18 +2652,18 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4566</v>
+        <v>377</v>
       </c>
       <c r="D66" t="n">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;atmel_start.h&gt; &lt;end&gt;</t>
+          <t>&lt;start&gt; NOT_STARTED_DISK_FULL       = 5 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2690,14 +2690,14 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4722</v>
+        <v>4566</v>
       </c>
       <c r="D67" t="n">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             status = ATCA_SUCCESS ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;atmel_start.h&gt; &lt;end&gt;</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2720,18 +2720,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1961</v>
+        <v>4722</v>
       </c>
       <c r="D68" t="n">
-        <v>469</v>
+        <v>217</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( !pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;             status = ATCA_SUCCESS ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2754,18 +2754,18 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2352</v>
+        <v>1961</v>
       </c>
       <c r="D69" t="n">
-        <v>119</v>
+        <v>469</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( !pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2788,18 +2788,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3920</v>
+        <v>2352</v>
       </c>
       <c r="D70" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>&lt;start&gt; delay ( 1000 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2822,18 +2822,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2473</v>
+        <v>3920</v>
       </c>
       <c r="D71" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; delay ( 1000 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2856,18 +2856,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3295</v>
+        <v>2473</v>
       </c>
       <c r="D72" t="n">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Status = ecc_mul_double (  ( digit_t* )  ( Signature+32 )  ,  A ,   ( digit_t* ) h ,  A )  ;        &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2890,18 +2890,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3344</v>
+        <v>235</v>
       </c>
       <c r="D73" t="n">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_autoptr ( EVP_CIPHER_CTX )  ctx = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( lastSampleTicks == 0 )  { lastSampleTicks = now ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2911,11 +2911,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2924,18 +2924,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2122</v>
+        <v>3295</v>
       </c>
       <c r="D74" t="n">
-        <v>641</v>
+        <v>167</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Status = ecc_mul_double (  ( digit_t* )  ( Signature+32 )  ,  A ,   ( digit_t* ) h ,  A )  ;        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2958,18 +2958,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2984</v>
+        <v>3344</v>
       </c>
       <c r="D75" t="n">
-        <v>830</v>
+        <v>47</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; g_autoptr ( EVP_CIPHER_CTX )  ctx = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2992,18 +2992,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2261</v>
+        <v>2122</v>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>641</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0xfd , 0xff , 0x81 , 0xf0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3026,18 +3026,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4320</v>
+        <v>2984</v>
       </c>
       <c r="D77" t="n">
-        <v>357</v>
+        <v>830</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     PcdAntennaOff (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3060,18 +3060,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1990</v>
+        <v>2261</v>
       </c>
       <c r="D78" t="n">
-        <v>498</v>
+        <v>28</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0xfd , 0xff , 0x81 , 0xf0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3094,18 +3094,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2901</v>
+        <v>4320</v>
       </c>
       <c r="D79" t="n">
-        <v>720</v>
+        <v>357</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt;     PcdAntennaOff (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3128,18 +3128,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1475</v>
+        <v>1990</v>
       </c>
       <c r="D80" t="n">
-        <v>674</v>
+        <v>498</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3162,18 +3162,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3108</v>
+        <v>2901</v>
       </c>
       <c r="D81" t="n">
-        <v>86</v>
+        <v>720</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3183,11 +3183,11 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3196,18 +3196,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4618</v>
+        <v>1475</v>
       </c>
       <c r="D82" t="n">
-        <v>94</v>
+        <v>674</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         nonce_params.rand_out = rand_out ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3230,18 +3230,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4405</v>
+        <v>4618</v>
       </c>
       <c r="D83" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "../build/include/sdkconfig.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;         nonce_params.rand_out = rand_out ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3264,18 +3264,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3938</v>
+        <v>4405</v>
       </c>
       <c r="D84" t="n">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "../build/include/sdkconfig.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3298,18 +3298,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>100</v>
+        <v>3938</v>
       </c>
       <c r="D85" t="n">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static void UsbWrite ( const void *buffer ,  unsigned int len )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3332,18 +3332,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3690</v>
+        <v>100</v>
       </c>
       <c r="D86" t="n">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; static void UsbWrite ( const void *buffer ,  unsigned int len )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3370,14 +3370,14 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3484</v>
+        <v>3690</v>
       </c>
       <c r="D87" t="n">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>&lt;start&gt; unsigned char keypad[4][4] = {{'1' , '4' , '7' , '*'} , {'2' , '5' , '8' , '0'} , {'3' , '6' , '9' , '#'} , {'A' , 'B' , 'C' , 'D'}} ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3400,18 +3400,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4376</v>
+        <v>3484</v>
       </c>
       <c r="D88" t="n">
-        <v>415</v>
+        <v>28</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 OLED_DrawPoint ( x + 2 + offsetx ,  y ,  0 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; unsigned char keypad[4][4] = {{'1' , '4' , '7' , '*'} , {'2' , '5' , '8' , '0'} , {'3' , '6' , '9' , '#'} , {'A' , 'B' , 'C' , 'D'}} ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3434,18 +3434,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>973</v>
+        <v>4376</v>
       </c>
       <c r="D89" t="n">
-        <v>231</v>
+        <v>415</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;                 OLED_DrawPoint ( x + 2 + offsetx ,  y ,  0 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3472,14 +3472,14 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>806</v>
+        <v>973</v>
       </c>
       <c r="D90" t="n">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>&lt;start&gt; rt_err_t rt_i2c_bus_attach_device ( struct rt_i2c_device* device ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3502,18 +3502,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>806</v>
       </c>
       <c r="D91" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "Peripherals/Rtc.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; rt_err_t rt_i2c_bus_attach_device ( struct rt_i2c_device* device ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3536,18 +3536,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3400</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "Peripherals/Rtc.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3570,18 +3570,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>435</v>
+        <v>3400</v>
       </c>
       <c r="D93" t="n">
-        <v>521</v>
+        <v>111</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3604,18 +3604,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4458</v>
+        <v>435</v>
       </c>
       <c r="D94" t="n">
-        <v>88</v>
+        <v>521</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             wifi_connection (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3638,18 +3638,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1512</v>
+        <v>4458</v>
       </c>
       <c r="D95" t="n">
-        <v>715</v>
+        <v>88</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( memcmp ( &amp; ( what_storage_should_be[i] )  ,  buffer ,  128 )  )  &lt;end&gt;</t>
+          <t>&lt;start&gt;             wifi_connection (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3672,18 +3672,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3725</v>
+        <v>1512</v>
       </c>
       <c r="D96" t="n">
-        <v>269</v>
+        <v>715</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_clrscr (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( memcmp ( &amp; ( what_storage_should_be[i] )  ,  buffer ,  128 )  )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3706,18 +3706,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4305</v>
+        <v>3725</v>
       </c>
       <c r="D97" t="n">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RC522_System_Init ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_clrscr (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3740,18 +3740,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1773</v>
+        <v>4305</v>
       </c>
       <c r="D98" t="n">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto err ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void RC522_System_Init ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3774,18 +3774,18 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>979</v>
+        <v>1773</v>
       </c>
       <c r="D99" t="n">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "test_helpers.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto err ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3808,18 +3808,18 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1886</v>
+        <v>979</v>
       </c>
       <c r="D100" t="n">
-        <v>372</v>
+        <v>30</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       iotx_http_context-&gt;p_devinfo-&gt;device_name ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "test_helpers.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3842,18 +3842,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1551</v>
+        <v>1886</v>
       </c>
       <c r="D101" t="n">
-        <v>756</v>
+        <v>372</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       iotx_http_context-&gt;p_devinfo-&gt;device_name ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3876,18 +3876,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2082</v>
+        <v>1551</v>
       </c>
       <c r="D102" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "IOT_HTTP_SendMessage request_payload NULL!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3914,14 +3914,14 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2139</v>
+        <v>2082</v>
       </c>
       <c r="D103" t="n">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         httpclient_close ( httpc )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "IOT_HTTP_SendMessage request_payload NULL!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3944,18 +3944,18 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2622</v>
+        <v>2139</v>
       </c>
       <c r="D104" t="n">
-        <v>350</v>
+        <v>659</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_Peek ( uint16_t *data )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         httpclient_close ( httpc )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3982,14 +3982,14 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2891</v>
+        <v>2622</v>
       </c>
       <c r="D105" t="n">
-        <v>708</v>
+        <v>350</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_Peek ( uint16_t *data )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4016,14 +4016,14 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2809</v>
+        <v>2891</v>
       </c>
       <c r="D106" t="n">
-        <v>596</v>
+        <v>708</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     periph_id[29] = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>369</v>
+        <v>2809</v>
       </c>
       <c r="D107" t="n">
-        <v>447</v>
+        <v>596</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>&lt;start&gt; {  &lt;end&gt;</t>
+          <t>&lt;start&gt;     periph_id[29] = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4080,18 +4080,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3545</v>
+        <v>369</v>
       </c>
       <c r="D108" t="n">
-        <v>89</v>
+        <v>447</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4114,18 +4114,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1405</v>
+        <v>3545</v>
       </c>
       <c r="D109" t="n">
-        <v>598</v>
+        <v>89</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>&lt;start&gt; free ( compare )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4148,18 +4148,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4638</v>
+        <v>1405</v>
       </c>
       <c r="D110" t="n">
-        <v>117</v>
+        <v>598</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; free ( compare )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4182,18 +4182,18 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1993</v>
+        <v>4638</v>
       </c>
       <c r="D111" t="n">
-        <v>501</v>
+        <v>117</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( NULL == pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4216,18 +4216,18 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2618</v>
+        <v>1993</v>
       </c>
       <c r="D112" t="n">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_Read ( uint16_t *data )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( NULL == pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2272</v>
+        <v>2618</v>
       </c>
       <c r="D113" t="n">
-        <v>39</v>
+        <v>343</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0xf8 , 0x0 , 0xf , 0x7 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_Read ( uint16_t *data )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4284,18 +4284,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1678</v>
+        <v>2272</v>
       </c>
       <c r="D114" t="n">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         } &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0xf8 , 0x0 , 0xf , 0x7 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4318,18 +4318,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4699</v>
+        <v>1678</v>
       </c>
       <c r="D115" t="n">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         { &lt;end&gt;</t>
+          <t>&lt;start&gt;         } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4352,18 +4352,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>646</v>
+        <v>4699</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "dhsender_queue.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;         { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4386,18 +4386,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>832</v>
+        <v>646</v>
       </c>
       <c r="D117" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                           rt_uint16_t addr ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "dhsender_queue.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4420,18 +4420,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4158</v>
+        <v>832</v>
       </c>
       <c r="D118" t="n">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                           rt_uint16_t addr ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4454,18 +4454,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>344</v>
+        <v>4158</v>
       </c>
       <c r="D119" t="n">
-        <v>421</v>
+        <v>191</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             char c0 ,  c1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4488,18 +4488,18 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1489</v>
+        <v>344</v>
       </c>
       <c r="D120" t="n">
-        <v>689</v>
+        <v>421</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>&lt;start&gt; else &lt;end&gt;</t>
+          <t>&lt;start&gt;             char c0 ,  c1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4522,18 +4522,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>351</v>
+        <v>1489</v>
       </c>
       <c r="D121" t="n">
-        <v>428</v>
+        <v>689</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             else &lt;end&gt;</t>
+          <t>&lt;start&gt; else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4556,18 +4556,18 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2221</v>
+        <v>351</v>
       </c>
       <c r="D122" t="n">
-        <v>755</v>
+        <v>428</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>&lt;start&gt; do_exit: &lt;end&gt;</t>
+          <t>&lt;start&gt;             else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4594,14 +4594,14 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1783</v>
+        <v>2221</v>
       </c>
       <c r="D123" t="n">
-        <v>246</v>
+        <v>755</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; do_exit: &lt;end&gt;</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4624,18 +4624,18 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2780</v>
+        <v>1783</v>
       </c>
       <c r="D124" t="n">
-        <v>561</v>
+        <v>246</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4658,18 +4658,18 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>233</v>
+        <v>2780</v>
       </c>
       <c r="D125" t="n">
-        <v>301</v>
+        <v>561</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 static unsigned long lastSampleTicks = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4692,18 +4692,18 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2908</v>
+        <v>233</v>
       </c>
       <c r="D126" t="n">
-        <v>730</v>
+        <v>301</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;                 static unsigned long lastSampleTicks = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4730,14 +4730,14 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2487</v>
+        <v>2908</v>
       </c>
       <c r="D127" t="n">
-        <v>164</v>
+        <v>730</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_ResetHandler ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3895</v>
+        <v>2487</v>
       </c>
       <c r="D128" t="n">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             case POST_DELETE: &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_ResetHandler ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4794,18 +4794,18 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>678</v>
+        <v>3895</v>
       </c>
       <c r="D129" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>&lt;start&gt; enum flash_size_map size_map = system_get_flash_size_map (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             case POST_DELETE: &lt;end&gt;</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4828,18 +4828,18 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2721</v>
+        <v>678</v>
       </c>
       <c r="D130" t="n">
-        <v>488</v>
+        <v>44</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt; enum flash_size_map size_map = system_get_flash_size_map (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4862,18 +4862,18 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1838</v>
+        <v>2721</v>
       </c>
       <c r="D131" t="n">
-        <v>303</v>
+        <v>488</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     iotx_http_context-&gt;auth_token_len = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4896,18 +4896,18 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4584</v>
+        <v>1838</v>
       </c>
       <c r="D132" t="n">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     iotx_http_context-&gt;auth_token_len = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4930,18 +4930,18 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2504</v>
+        <v>4584</v>
       </c>
       <c r="D133" t="n">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4964,18 +4964,18 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1282</v>
+        <v>2504</v>
       </c>
       <c r="D134" t="n">
-        <v>470</v>
+        <v>191</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; 16 ;  i++ )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4998,18 +4998,18 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1683</v>
+        <v>1282</v>
       </c>
       <c r="D135" t="n">
-        <v>139</v>
+        <v>470</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     return rc ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; 16 ;  i++ )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5036,14 +5036,14 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1920</v>
+        <v>1683</v>
       </c>
       <c r="D136" t="n">
-        <v>409</v>
+        <v>139</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     httpc =  ( httpclient_t * ) iotx_http_context-&gt;httpc ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     return rc ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5066,18 +5066,18 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>43</v>
+        <v>1920</v>
       </c>
       <c r="D137" t="n">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Reset (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     httpc =  ( httpclient_t * ) iotx_http_context-&gt;httpc ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5100,18 +5100,18 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1975</v>
+        <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      ( void ) response_message ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Reset (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5134,18 +5134,18 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2610</v>
+        <v>1975</v>
       </c>
       <c r="D139" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         case VMC_EXPANSION_DIAGNOSTICS : ExpansionDiagnostics (  )  ;  break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;      ( void ) response_message ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5168,18 +5168,18 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4571</v>
+        <v>2610</v>
       </c>
       <c r="D140" t="n">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #endif &lt;end&gt;</t>
+          <t>&lt;start&gt;         case VMC_EXPANSION_DIAGNOSTICS : ExpansionDiagnostics (  )  ;  break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5202,18 +5202,18 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2162</v>
+        <v>4571</v>
       </c>
       <c r="D141" t="n">
-        <v>693</v>
+        <v>44</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #endif &lt;end&gt;</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5236,18 +5236,18 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3602</v>
+        <v>2162</v>
       </c>
       <c r="D142" t="n">
-        <v>146</v>
+        <v>693</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5270,18 +5270,18 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1926</v>
+        <v>3602</v>
       </c>
       <c r="D143" t="n">
-        <v>415</v>
+        <v>146</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     httpc_data.response_buf_len = HTTP_AUTH_RESP_MAX_LEN ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5304,18 +5304,18 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4442</v>
+        <v>1926</v>
       </c>
       <c r="D144" t="n">
-        <v>72</v>
+        <v>415</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 .password = TEST_WIFI_PASSWORD ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     httpc_data.response_buf_len = HTTP_AUTH_RESP_MAX_LEN ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5338,18 +5338,18 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3193</v>
+        <v>4442</v>
       </c>
       <c r="D145" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;                 .password = TEST_WIFI_PASSWORD ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5372,18 +5372,18 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1467</v>
+        <v>3193</v>
       </c>
       <c r="D146" t="n">
-        <v>666</v>
+        <v>59</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>&lt;start&gt; buffer[j] =  ( uint8_t ) rand (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5406,18 +5406,18 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4302</v>
+        <v>1467</v>
       </c>
       <c r="D147" t="n">
-        <v>339</v>
+        <v>666</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; buffer[j] =  ( uint8_t ) rand (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5440,18 +5440,18 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4542</v>
+        <v>4302</v>
       </c>
       <c r="D148" t="n">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>930</v>
+        <v>4542</v>
       </c>
       <c r="D149" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     msgs.len = 2 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5508,18 +5508,18 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2128</v>
+        <v>930</v>
       </c>
       <c r="D150" t="n">
-        <v>648</v>
+        <v>188</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                   IOTX_HTTP_ONLINE_SERVER_PORT ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     msgs.len = 2 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5542,18 +5542,18 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4256</v>
+        <v>2128</v>
       </c>
       <c r="D151" t="n">
-        <v>291</v>
+        <v>648</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                 HexToStr ( cardIDChar ,  9 ,  SelectedSnr ,  4 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                   IOTX_HTTP_ONLINE_SERVER_PORT ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5576,18 +5576,18 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4422</v>
+        <v>4256</v>
       </c>
       <c r="D152" t="n">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( uxBits &amp; CONNECTED_BIT )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 HexToStr ( cardIDChar ,  9 ,  SelectedSnr ,  4 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -5610,18 +5610,18 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3876</v>
+        <v>4422</v>
       </c>
       <c r="D153" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( uxBits &amp; CONNECTED_BIT )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5644,18 +5644,18 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1676</v>
+        <v>3876</v>
       </c>
       <c r="D154" t="n">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 rc++ ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5678,18 +5678,18 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>58</v>
+        <v>1676</v>
       </c>
       <c r="D155" t="n">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 rc++ ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5716,14 +5716,14 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="D156" t="n">
-        <v>347</v>
+        <v>94</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     FtlShutdown (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5746,18 +5746,18 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1285</v>
+        <v>302</v>
       </c>
       <c r="D157" t="n">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>&lt;start&gt; tweak_key[i] =  ( uint8_t ) value ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( inactive &gt; 3 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5784,14 +5784,14 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="D158" t="n">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     accel_t accelSample ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     FtlShutdown (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5814,18 +5814,18 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3168</v>
+        <v>1285</v>
       </c>
       <c r="D159" t="n">
-        <v>31</v>
+        <v>473</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     ecc_mul_fixed (  ( digit_t* ) k ,  P )  ;            &lt;end&gt;</t>
+          <t>&lt;start&gt; tweak_key[i] =  ( uint8_t ) value ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5848,18 +5848,18 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4469</v>
+        <v>238</v>
       </c>
       <c r="D160" t="n">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             xEventGroupClearBits ( wifi_event_group ,  CONNECTED_BIT )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     accel_t accelSample ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1688</v>
+        <v>3168</v>
       </c>
       <c r="D161" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     ecc_mul_fixed (  ( digit_t* ) k ,  P )  ;            &lt;end&gt;</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5916,18 +5916,18 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>4065</v>
+        <v>4469</v>
       </c>
       <c r="D162" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;             xEventGroupClearBits ( wifi_event_group ,  CONNECTED_BIT )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5950,18 +5950,18 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>152</v>
+        <v>1688</v>
       </c>
       <c r="D163" t="n">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( !USB_BUS_SENSE )        &lt;end&gt;</t>
+          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5984,18 +5984,18 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1633</v>
+        <v>4065</v>
       </c>
       <c r="D164" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     IOTX_HTTP_HEADER_PASSWORD_STR \ &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6018,18 +6018,18 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3199</v>
+        <v>152</v>
       </c>
       <c r="D165" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     clear_words (  ( unsigned int* ) PublicKey ,  256/ ( sizeof ( unsigned int ) *8 )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( !USB_BUS_SENSE )        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -6052,18 +6052,18 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2727</v>
+        <v>1633</v>
       </c>
       <c r="D166" t="n">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     MDB_Send ( CSH_SESSION_CANCEL_REQUEST )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     IOTX_HTTP_HEADER_PASSWORD_STR \ &lt;end&gt;</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6086,18 +6086,18 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1772</v>
+        <v>3199</v>
       </c>
       <c r="D167" t="n">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "Allocate memory for auth token failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     clear_words (  ( unsigned int* ) PublicKey ,  256/ ( sizeof ( unsigned int ) *8 )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6120,18 +6120,18 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3754</v>
+        <v>2727</v>
       </c>
       <c r="D168" t="n">
-        <v>298</v>
+        <v>501</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_puts ( &amp;output[i] )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     MDB_Send ( CSH_SESSION_CANCEL_REQUEST )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6154,18 +6154,18 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2551</v>
+        <v>1772</v>
       </c>
       <c r="D169" t="n">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "Allocate memory for auth token failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6188,18 +6188,18 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4186</v>
+        <v>3754</v>
       </c>
       <c r="D170" t="n">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     ws2812bSetAll ( RED )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_puts ( &amp;output[i] )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6222,18 +6222,18 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>145</v>
+        <v>2551</v>
       </c>
       <c r="D171" t="n">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Reset (  )  ;                  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6256,18 +6256,18 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2390</v>
+        <v>4186</v>
       </c>
       <c r="D172" t="n">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     ws2812bSetAll ( RED )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6290,18 +6290,18 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2380</v>
+        <v>145</v>
       </c>
       <c r="D173" t="n">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;     Reset (  )  ;                  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6324,18 +6324,18 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>227</v>
+        <v>2390</v>
       </c>
       <c r="D174" t="n">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6358,18 +6358,18 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>562</v>
+        <v>2380</v>
       </c>
       <c r="D175" t="n">
-        <v>676</v>
+        <v>147</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             } &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6392,18 +6392,18 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2065</v>
+        <v>227</v>
       </c>
       <c r="D176" t="n">
-        <v>583</v>
+        <v>294</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "iotx_http_context or msg_param NULL pointer!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6426,18 +6426,18 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1044</v>
+        <v>562</v>
       </c>
       <c r="D177" t="n">
-        <v>151</v>
+        <v>676</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>&lt;start&gt; xexEnDecrypt ( out ,  in ,  n ,  seq ,  tweak_key ,  encrypt_key ,  true )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6460,18 +6460,18 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3246</v>
+        <v>2065</v>
       </c>
       <c r="D178" t="n">
-        <v>115</v>
+        <v>583</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Montgomery_multiply_mod_order ( S ,  H ,  S )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "iotx_http_context or msg_param NULL pointer!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6498,14 +6498,14 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1396</v>
+        <v>1044</v>
       </c>
       <c r="D179" t="n">
-        <v>589</v>
+        <v>151</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>&lt;start&gt; printBigEndian16 ( plaintext )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; xexEnDecrypt ( out ,  in ,  n ,  seq ,  tweak_key ,  encrypt_key ,  true )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6528,18 +6528,18 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>817</v>
+        <v>3246</v>
       </c>
       <c r="D180" t="n">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         device-&gt;bus =  ( struct rt_i2c_bus* ) bus ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Montgomery_multiply_mod_order ( S ,  H ,  S )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6562,18 +6562,18 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2257</v>
+        <v>1396</v>
       </c>
       <c r="D181" t="n">
-        <v>24</v>
+        <v>589</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0x7 , 0xff , 0xfe , 0x0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; printBigEndian16 ( plaintext )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6596,18 +6596,18 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2935</v>
+        <v>817</v>
       </c>
       <c r="D182" t="n">
-        <v>759</v>
+        <v>73</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;         device-&gt;bus =  ( struct rt_i2c_bus* ) bus ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6630,18 +6630,18 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>163</v>
+        <v>2257</v>
       </c>
       <c r="D183" t="n">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( FSInit (  ) !=TRUE )                            &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0x7 , 0xff , 0xfe , 0x0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6651,11 +6651,11 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6668,14 +6668,14 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2879</v>
+        <v>2935</v>
       </c>
       <c r="D184" t="n">
-        <v>688</v>
+        <v>759</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 3 ;  ++i )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6702,14 +6702,14 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2581</v>
+        <v>2879</v>
       </c>
       <c r="D185" t="n">
-        <v>289</v>
+        <v>688</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 3 ;  ++i )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6719,11 +6719,11 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7174,18 +7174,18 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4718</v>
+        <v>3620</v>
       </c>
       <c r="D199" t="n">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7195,11 +7195,11 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7208,18 +7208,18 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1237</v>
+        <v>4718</v>
       </c>
       <c r="D200" t="n">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>&lt;start&gt; seen_count = true ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7242,18 +7242,18 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>24</v>
+        <v>1237</v>
       </c>
       <c r="D201" t="n">
-        <v>53</v>
+        <v>421</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "AX3 SelfTest.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; seen_count = true ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7276,18 +7276,18 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3326</v>
+        <v>24</v>
       </c>
       <c r="D202" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "AX3 SelfTest.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7310,18 +7310,18 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1794</v>
+        <v>3326</v>
       </c>
       <c r="D203" t="n">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "Allocate memory for iotx_http_context-&gt;httpc failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7344,18 +7344,18 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2731</v>
+        <v>1794</v>
       </c>
       <c r="D204" t="n">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "Allocate memory for iotx_http_context-&gt;httpc failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7378,18 +7378,18 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>28</v>
+        <v>2731</v>
       </c>
       <c r="D205" t="n">
-        <v>58</v>
+        <v>505</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RunLogging ( void )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7412,18 +7412,18 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2014</v>
+        <v>28</v>
       </c>
       <c r="D206" t="n">
-        <v>523</v>
+        <v>58</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; void RunLogging ( void )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7446,18 +7446,18 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>545</v>
+        <v>2014</v>
       </c>
       <c r="D207" t="n">
-        <v>657</v>
+        <v>523</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7480,18 +7480,18 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3338</v>
+        <v>545</v>
       </c>
       <c r="D208" t="n">
-        <v>24</v>
+        <v>657</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>&lt;start&gt; memcpy ( iv ,  &amp;iv_val ,  sizeof ( guint64 )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7514,18 +7514,18 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2364</v>
+        <v>3338</v>
       </c>
       <c r="D209" t="n">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>&lt;start&gt;    display.setCursor ( 20 , 50 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; memcpy ( iv ,  &amp;iv_val ,  sizeof ( guint64 )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7548,18 +7548,18 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>864</v>
+        <v>2364</v>
       </c>
       <c r="D210" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                              rt_uint32_t count )  &lt;end&gt;</t>
+          <t>&lt;start&gt;    display.setCursor ( 20 , 50 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7582,18 +7582,18 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3526</v>
+        <v>864</v>
       </c>
       <c r="D211" t="n">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>&lt;start&gt; row = FIRST_ROW ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                              rt_uint32_t count )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7616,18 +7616,18 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>346</v>
+        <v>3526</v>
       </c>
       <c r="D212" t="n">
-        <v>423</v>
+        <v>70</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             if  ( inactive == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; row = FIRST_ROW ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7637,11 +7637,11 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -8296,18 +8296,18 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>235</v>
+        <v>1744</v>
       </c>
       <c r="D232" t="n">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( lastSampleTicks == 0 )  { lastSampleTicks = now ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;     iotx_http_t        *iotx_http_context ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8317,11 +8317,11 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -8330,18 +8330,18 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1744</v>
+        <v>3208</v>
       </c>
       <c r="D233" t="n">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     iotx_http_t        *iotx_http_context ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     unsigned char k[64] ,  r[64] ,  h[64] ,  *temp = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8364,18 +8364,18 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3208</v>
+        <v>1669</v>
       </c>
       <c r="D234" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     unsigned char k[64] ,  r[64] ,  h[64] ,  *temp = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         switch  ( *++p )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -8398,18 +8398,18 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>302</v>
+        <v>4764</v>
       </c>
       <c r="D235" t="n">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( inactive &gt; 3 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8419,11 +8419,11 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -8432,18 +8432,18 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1669</v>
+        <v>3472</v>
       </c>
       <c r="D236" t="n">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         switch  ( *++p )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; #define CONFIRM_SOUND 2 &lt;end&gt;</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8466,18 +8466,18 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4764</v>
+        <v>4184</v>
       </c>
       <c r="D237" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;                     relay_off (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8504,14 +8504,14 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3472</v>
+        <v>3477</v>
       </c>
       <c r="D238" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define CONFIRM_SOUND 2 &lt;end&gt;</t>
+          <t>&lt;start&gt; #define PASS_LENGHT 4 &lt;end&gt;</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8534,18 +8534,18 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4184</v>
+        <v>2657</v>
       </c>
       <c r="D239" t="n">
-        <v>217</v>
+        <v>397</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     relay_off (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8568,18 +8568,18 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3477</v>
+        <v>412</v>
       </c>
       <c r="D240" t="n">
-        <v>21</v>
+        <v>495</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define PASS_LENGHT 4 &lt;end&gt;</t>
+          <t>&lt;start&gt; void RunLogging ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8606,14 +8606,14 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2657</v>
+        <v>2725</v>
       </c>
       <c r="D241" t="n">
-        <v>397</v>
+        <v>499</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void SessionCancelRequest ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8636,18 +8636,18 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>412</v>
+        <v>1379</v>
       </c>
       <c r="D242" t="n">
-        <v>495</v>
+        <v>572</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RunLogging ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8670,18 +8670,18 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2725</v>
+        <v>4713</v>
       </c>
       <c r="D243" t="n">
-        <v>499</v>
+        <v>206</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void SessionCancelRequest ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  (  ( status = publickey_validate ( true )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -8704,18 +8704,18 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1379</v>
+        <v>3592</v>
       </c>
       <c r="D244" t="n">
-        <v>572</v>
+        <v>136</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA &amp;= ~ ( _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8738,18 +8738,18 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4713</v>
+        <v>313</v>
       </c>
       <c r="D245" t="n">
-        <v>206</v>
+        <v>387</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  (  ( status = publickey_validate ( true )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -8772,18 +8772,18 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3592</v>
+        <v>3217</v>
       </c>
       <c r="D246" t="n">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA &amp;= ~ ( _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8806,18 +8806,18 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>313</v>
+        <v>4445</v>
       </c>
       <c r="D247" t="n">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 { &lt;end&gt;</t>
+          <t>&lt;start&gt;     Log_i ( "Setting WiFi configuration SSID %s..." ,  wifi_config.sta.ssid )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8840,18 +8840,18 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3217</v>
+        <v>3801</v>
       </c>
       <c r="D248" t="n">
-        <v>86</v>
+        <v>345</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      &lt;end&gt;</t>
+          <t>&lt;start&gt; TIMSK = _BV ( OCIE0 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8874,18 +8874,18 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4445</v>
+        <v>856</v>
       </c>
       <c r="D249" t="n">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Log_i ( "Setting WiFi configuration SSID %s..." ,  wifi_config.sta.ssid )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         return 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8908,18 +8908,18 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3801</v>
+        <v>4643</v>
       </c>
       <c r="D250" t="n">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>&lt;start&gt; TIMSK = _BV ( OCIE0 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         sign_params.key_id = authority_key_slot ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8942,18 +8942,18 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>856</v>
+        <v>163</v>
       </c>
       <c r="D251" t="n">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( FSInit (  ) !=TRUE )                            &lt;end&gt;</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8963,11 +8963,11 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -8976,18 +8976,18 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4643</v>
+        <v>2993</v>
       </c>
       <c r="D252" t="n">
-        <v>122</v>
+        <v>847</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         sign_params.key_id = authority_key_slot ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint16_t CSH_GetUserFunds ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9010,18 +9010,18 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>449</v>
+        <v>866</v>
       </c>
       <c r="D253" t="n">
-        <v>540</v>
+        <v>124</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( settings.debuggingInfo &gt;= 1 || status.debugFlashCount &gt; 0 )  { LED_SET ( LED_YELLOW )  ;  if  ( status.debugFlashCount &gt; 0 )  status.debugFlashCount-- ;  Delay10us ( 5 )  ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;     rt_size_t ret ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -9044,18 +9044,18 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2993</v>
+        <v>4403</v>
       </c>
       <c r="D254" t="n">
-        <v>847</v>
+        <v>31</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint16_t CSH_GetUserFunds ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "qrcode.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -9078,18 +9078,18 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>866</v>
+        <v>4529</v>
       </c>
       <c r="D255" t="n">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     rt_size_t ret ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     wifi_connected = wait_for_wifi_ready ( CONNECTED_BIT ,  20 ,  1000 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -9112,18 +9112,18 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4403</v>
+        <v>3286</v>
       </c>
       <c r="D256" t="n">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "qrcode.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;     memmove ( temp ,  Signature ,  32 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -9146,18 +9146,18 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4529</v>
+        <v>3710</v>
       </c>
       <c r="D257" t="n">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     wifi_connected = wait_for_wifi_ready ( CONNECTED_BIT ,  20 ,  1000 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; flagPot = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9180,18 +9180,18 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3286</v>
+        <v>1446</v>
       </c>
       <c r="D258" t="n">
-        <v>158</v>
+        <v>642</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     memmove ( temp ,  Signature ,  32 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9214,18 +9214,18 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3710</v>
+        <v>2825</v>
       </c>
       <c r="D259" t="n">
-        <v>254</v>
+        <v>613</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>&lt;start&gt; flagPot = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     malf_err[1] = csh_error_code ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9248,14 +9248,14 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1446</v>
+        <v>3755</v>
       </c>
       <c r="D260" t="n">
-        <v>642</v>
+        <v>299</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -9282,18 +9282,18 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2825</v>
+        <v>3214</v>
       </c>
       <c r="D261" t="n">
-        <v>613</v>
+        <v>83</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     malf_err[1] = csh_error_code ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         Status = ECCRYPTO_ERROR ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -9316,18 +9316,18 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3755</v>
+        <v>2976</v>
       </c>
       <c r="D262" t="n">
-        <v>299</v>
+        <v>820</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -9350,18 +9350,18 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3214</v>
+        <v>3532</v>
       </c>
       <c r="D263" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         Status = ECCRYPTO_ERROR ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -9384,18 +9384,18 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2976</v>
+        <v>1621</v>
       </c>
       <c r="D264" t="n">
-        <v>820</v>
+        <v>64</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #endif &lt;end&gt;</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9418,18 +9418,18 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3532</v>
+        <v>889</v>
       </c>
       <c r="D265" t="n">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     msg.flags = flags &amp; RT_I2C_ADDR_10BIT ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -9452,18 +9452,18 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1621</v>
+        <v>4724</v>
       </c>
       <c r="D266" t="n">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #endif &lt;end&gt;</t>
+          <t>&lt;start&gt;         } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9486,18 +9486,18 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>889</v>
+        <v>355</v>
       </c>
       <c r="D267" t="n">
-        <v>147</v>
+        <v>432</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     msg.flags = flags &amp; RT_I2C_ADDR_10BIT ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9520,18 +9520,18 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4724</v>
+        <v>984</v>
       </c>
       <c r="D268" t="n">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         } &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "aes.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9554,18 +9554,18 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>355</v>
+        <v>3073</v>
       </c>
       <c r="D269" t="n">
-        <v>432</v>
+        <v>46</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt; _delay_ms ( 500 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9588,18 +9588,18 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>984</v>
+        <v>449</v>
       </c>
       <c r="D270" t="n">
-        <v>35</v>
+        <v>540</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "aes.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( settings.debuggingInfo &gt;= 1 || status.debugFlashCount &gt; 0 )  { LED_SET ( LED_YELLOW )  ;  if  ( status.debugFlashCount &gt; 0 )  status.debugFlashCount-- ;  Delay10us ( 5 )  ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9609,11 +9609,11 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -9622,18 +9622,18 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3073</v>
+        <v>2425</v>
       </c>
       <c r="D271" t="n">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>&lt;start&gt; _delay_ms ( 500 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   return finger.fingerID ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9656,18 +9656,18 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2425</v>
+        <v>1113</v>
       </c>
       <c r="D272" t="n">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   return finger.fingerID ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; return NV_INVALID_ADDRESS ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9690,18 +9690,18 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1113</v>
+        <v>3905</v>
       </c>
       <c r="D273" t="n">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return NV_INVALID_ADDRESS ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 sendUpdate (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9724,18 +9724,18 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3905</v>
+        <v>3182</v>
       </c>
       <c r="D274" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 sendUpdate (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9758,18 +9758,18 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3182</v>
+        <v>3663</v>
       </c>
       <c r="D275" t="n">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>&lt;start&gt; {  &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if (  ( adcConversion &lt;= ADC_PLUS &amp;&amp; adcConversion &gt;= ADC_MINUS )  &amp;&amp; flagPot == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9779,11 +9779,11 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -9792,18 +9792,18 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3663</v>
+        <v>1210</v>
       </c>
       <c r="D276" t="n">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if (  ( adcConversion &lt;= ADC_PLUS &amp;&amp; adcConversion &gt;= ADC_MINUS )  &amp;&amp; flagPot == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; printf ( "value ,  and one with a \"data unit sequence number\" as the tweak value.\n" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -9826,18 +9826,18 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1210</v>
+        <v>923</v>
       </c>
       <c r="D277" t="n">
-        <v>393</v>
+        <v>181</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>&lt;start&gt; printf ( "value ,  and one with a \"data unit sequence number\" as the tweak value.\n" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     struct rt_i2c_device* i2c_device =  ( struct rt_i2c_device* ) i2c_dev ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9860,18 +9860,18 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>923</v>
+        <v>3454</v>
       </c>
       <c r="D278" t="n">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     struct rt_i2c_device* i2c_device =  ( struct rt_i2c_device* ) i2c_dev ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; return r_crypt_encrypt_or_decrypt ( in ,  out ,  key ,  FALSE ,  maxsize ,  error )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9894,18 +9894,18 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3454</v>
+        <v>2944</v>
       </c>
       <c r="D279" t="n">
-        <v>165</v>
+        <v>772</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return r_crypt_encrypt_or_decrypt ( in ,  out ,  key ,  FALSE ,  maxsize ,  error )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9928,18 +9928,18 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2944</v>
+        <v>4591</v>
       </c>
       <c r="D280" t="n">
-        <v>772</v>
+        <v>64</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     atca_nonce_in_out_t nonce_params ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9962,18 +9962,18 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4591</v>
+        <v>3160</v>
       </c>
       <c r="D281" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     atca_nonce_in_out_t nonce_params ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     unsigned char k[64] ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9996,18 +9996,18 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3160</v>
+        <v>1612</v>
       </c>
       <c r="D282" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     unsigned char k[64] ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -10030,18 +10030,18 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1612</v>
+        <v>3541</v>
       </c>
       <c r="D283" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
+          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -10064,18 +10064,18 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3541</v>
+        <v>350</v>
       </c>
       <c r="D284" t="n">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -10098,18 +10098,18 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>350</v>
+        <v>4018</v>
       </c>
       <c r="D285" t="n">
-        <v>427</v>
+        <v>46</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( Key_Scan ( GPIOB ,  GPIO_Pin_12 )  == KEY_ON )   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -10132,18 +10132,18 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4018</v>
+        <v>2049</v>
       </c>
       <c r="D286" t="n">
-        <v>46</v>
+        <v>560</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( Key_Scan ( GPIOB ,  GPIO_Pin_12 )  == KEY_ON )   &lt;end&gt;</t>
+          <t>&lt;start&gt;     char               *pvalue = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H286" t="n">
@@ -10166,18 +10166,18 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3620</v>
+        <v>271</v>
       </c>
       <c r="D287" t="n">
-        <v>164</v>
+        <v>340</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -10187,11 +10187,11 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -10200,18 +10200,18 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2049</v>
+        <v>3808</v>
       </c>
       <c r="D288" t="n">
-        <v>560</v>
+        <v>352</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     char               *pvalue = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_init ( LCD_DISP_ON )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -10238,14 +10238,14 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="D289" t="n">
-        <v>340</v>
+        <v>596</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10268,18 +10268,18 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3808</v>
+        <v>1630</v>
       </c>
       <c r="D290" t="n">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_init ( LCD_DISP_ON )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #define IOTX_HTTP_HEADER_PASSWORD_STR   "password:" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10302,18 +10302,18 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>497</v>
+        <v>2645</v>
       </c>
       <c r="D291" t="n">
-        <v>596</v>
+        <v>385</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
+          <t>&lt;start&gt;     MDB_Send ( CSH_ACK )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10336,18 +10336,18 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1630</v>
+        <v>467</v>
       </c>
       <c r="D292" t="n">
-        <v>73</v>
+        <v>562</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define IOTX_HTTP_HEADER_PASSWORD_STR   "password:" &lt;end&gt;</t>
+          <t>&lt;start&gt;         { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10370,18 +10370,18 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2645</v>
+        <v>379</v>
       </c>
       <c r="D293" t="n">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     MDB_Send ( CSH_ACK )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; STOP_USB                    = 7 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10404,18 +10404,18 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>467</v>
+        <v>4517</v>
       </c>
       <c r="D294" t="n">
-        <v>562</v>
+        <v>151</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         { &lt;end&gt;</t>
+          <t>&lt;start&gt;     tzset (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10438,18 +10438,18 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>379</v>
+        <v>3850</v>
       </c>
       <c r="D295" t="n">
-        <v>457</v>
+        <v>38</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>&lt;start&gt; STOP_USB                    = 7 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt; char debug[20] ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10472,18 +10472,18 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4517</v>
+        <v>1574</v>
       </c>
       <c r="D296" t="n">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     tzset (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "http_debug.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10506,18 +10506,18 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3850</v>
+        <v>1370</v>
       </c>
       <c r="D297" t="n">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>&lt;start&gt; char debug[20] ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10540,18 +10540,18 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1574</v>
+        <v>1131</v>
       </c>
       <c r="D298" t="n">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "http_debug.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; block_offset = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10574,18 +10574,18 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1370</v>
+        <v>2685</v>
       </c>
       <c r="D299" t="n">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; void DisplayRequest ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10608,18 +10608,18 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1131</v>
+        <v>191</v>
       </c>
       <c r="D300" t="n">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>&lt;start&gt; block_offset = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     GyroStartup (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10646,14 +10646,14 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2685</v>
+        <v>2749</v>
       </c>
       <c r="D301" t="n">
-        <v>426</v>
+        <v>524</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void DisplayRequest ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                + vend_amount_H &lt;end&gt;</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10676,18 +10676,18 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>191</v>
+        <v>1888</v>
       </c>
       <c r="D302" t="n">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     GyroStartup (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10710,18 +10710,18 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2749</v>
+        <v>3595</v>
       </c>
       <c r="D303" t="n">
-        <v>524</v>
+        <v>139</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                + vend_amount_H &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA |= _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10744,18 +10744,18 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1888</v>
+        <v>2760</v>
       </c>
       <c r="D304" t="n">
-        <v>374</v>
+        <v>535</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void VendDenied ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10778,18 +10778,18 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3595</v>
+        <v>1248</v>
       </c>
       <c r="D305" t="n">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA |= _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10812,18 +10812,18 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2760</v>
+        <v>3915</v>
       </c>
       <c r="D306" t="n">
-        <v>535</v>
+        <v>106</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void VendDenied ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             lockFlag = TRUE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10846,18 +10846,18 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1248</v>
+        <v>731</v>
       </c>
       <c r="D307" t="n">
-        <v>433</v>
+        <v>115</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; system_rtc_mem_write ( RESET_COUNTER_RTC_ADDRESS ,  &amp;counter ,  sizeof ( counter )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10880,18 +10880,18 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3915</v>
+        <v>471</v>
       </c>
       <c r="D308" t="n">
-        <v>106</v>
+        <v>566</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             lockFlag = TRUE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10914,18 +10914,18 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>731</v>
+        <v>2737</v>
       </c>
       <c r="D309" t="n">
-        <v>115</v>
+        <v>511</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>&lt;start&gt; system_rtc_mem_write ( RESET_COUNTER_RTC_ADDRESS ,  &amp;counter ,  sizeof ( counter )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     uint8_t checksum = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10948,18 +10948,18 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>471</v>
+        <v>1702</v>
       </c>
       <c r="D310" t="n">
-        <v>566</v>
+        <v>158</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt; static int http_report_func ( void *handle ,  const char *topic_name ,  int req_ack ,  void *data ,  int len )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10982,18 +10982,18 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2737</v>
+        <v>1547</v>
       </c>
       <c r="D311" t="n">
-        <v>511</v>
+        <v>752</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     uint8_t checksum = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -11016,18 +11016,18 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1702</v>
+        <v>790</v>
       </c>
       <c r="D312" t="n">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int http_report_func ( void *handle ,  const char *topic_name ,  int req_ack ,  void *data ,  int len )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     const char* bus_name )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -11050,18 +11050,18 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1547</v>
+        <v>3386</v>
       </c>
       <c r="D313" t="n">
-        <v>752</v>
+        <v>97</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( !EVP_CipherUpdate ( ctx ,  outbuf ,  &amp;outlen ,  inbuf ,  ENC_SEC_SIZE )  )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H313" t="n">
@@ -11084,18 +11084,18 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>790</v>
+        <v>3108</v>
       </c>
       <c r="D314" t="n">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     const char* bus_name )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -11105,11 +11105,11 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -11118,18 +11118,18 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3386</v>
+        <v>346</v>
       </c>
       <c r="D315" t="n">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( !EVP_CipherUpdate ( ctx ,  outbuf ,  &amp;outlen ,  inbuf ,  ENC_SEC_SIZE )  )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;             if  ( inactive == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -11139,11 +11139,11 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -12342,18 +12342,18 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2269</v>
+        <v>2581</v>
       </c>
       <c r="D351" t="n">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x7 , 0xf , 0xff , 0xf8 , 0xf , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12363,11 +12363,11 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -12376,18 +12376,18 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2950</v>
+        <v>2269</v>
       </c>
       <c r="D352" t="n">
-        <v>778</v>
+        <v>36</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     csh_state = CSH_S_ENABLED ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x7 , 0xf , 0xff , 0xf8 , 0xf , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -12410,18 +12410,18 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>4419</v>
+        <v>2950</v>
       </c>
       <c r="D353" t="n">
-        <v>49</v>
+        <v>778</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  ( cnt++ &lt; wait_cnt )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     csh_state = CSH_S_ENABLED ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12444,18 +12444,18 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2203</v>
+        <v>4419</v>
       </c>
       <c r="D354" t="n">
-        <v>737</v>
+        <v>49</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  ( cnt++ &lt; wait_cnt )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -12478,18 +12478,18 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>776</v>
+        <v>2203</v>
       </c>
       <c r="D355" t="n">
-        <v>160</v>
+        <v>737</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>&lt;start&gt; dhap_init ( dhsettings_get_wifi_ssid (  )  ,  dhsettings_get_wifi_password (  )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12512,18 +12512,18 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2500</v>
+        <v>776</v>
       </c>
       <c r="D356" t="n">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 6 ;  ++i )  &lt;end&gt;</t>
+          <t>&lt;start&gt; dhap_init ( dhsettings_get_wifi_ssid (  )  ,  dhsettings_get_wifi_password (  )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12546,18 +12546,18 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1464</v>
+        <v>2500</v>
       </c>
       <c r="D357" t="n">
-        <v>662</v>
+        <v>187</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 6 ;  ++i )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -12580,18 +12580,18 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3387</v>
+        <v>1464</v>
       </c>
       <c r="D358" t="n">
-        <v>98</v>
+        <v>662</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_set_error ( error ,  R_CRYPT_ERROR ,  R_CRYPT_ERROR_FAILED ,  "EVP_CipherUpdate (  )  failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -12614,18 +12614,18 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>935</v>
+        <v>3387</v>
       </c>
       <c r="D359" t="n">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; g_set_error ( error ,  R_CRYPT_ERROR ,  R_CRYPT_ERROR_FAILED ,  "EVP_CipherUpdate (  )  failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -12648,18 +12648,18 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1517</v>
+        <v>935</v>
       </c>
       <c r="D360" t="n">
-        <v>720</v>
+        <v>193</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -12682,14 +12682,14 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2911</v>
+        <v>1517</v>
       </c>
       <c r="D361" t="n">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -12716,18 +12716,18 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>797</v>
+        <v>2911</v>
       </c>
       <c r="D362" t="n">
-        <v>52</v>
+        <v>733</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         bus-&gt;timeout = RT_TICK_PER_SECOND ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12750,18 +12750,18 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3223</v>
+        <v>797</v>
       </c>
       <c r="D363" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      &lt;end&gt;</t>
+          <t>&lt;start&gt;         bus-&gt;timeout = RT_TICK_PER_SECOND ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12784,18 +12784,18 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>779</v>
+        <v>3223</v>
       </c>
       <c r="D364" t="n">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12818,18 +12818,18 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4290</v>
+        <v>779</v>
       </c>
       <c r="D365" t="n">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     OLED_Refresh (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12852,18 +12852,18 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2213</v>
+        <v>4290</v>
       </c>
       <c r="D366" t="n">
-        <v>747</v>
+        <v>325</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     OLED_Refresh (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H366" t="n">
@@ -12886,18 +12886,18 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>7</v>
+        <v>2213</v>
       </c>
       <c r="D367" t="n">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H367" t="n">
@@ -12920,18 +12920,18 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>693</v>
+        <v>7</v>
       </c>
       <c r="D368" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12958,14 +12958,14 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="D369" t="n">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void user_rf_pre_init ( void )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12988,18 +12988,18 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2333</v>
+        <v>719</v>
       </c>
       <c r="D370" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     display.drawBitmap ( 30 , 35 , icon , 60 , 60 , GREEN )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void user_rf_pre_init ( void )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -13022,18 +13022,18 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4629</v>
+        <v>2333</v>
       </c>
       <c r="D371" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         memset ( gen_key_other_data ,  0 ,  sizeof ( gen_key_other_data )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     display.drawBitmap ( 30 , 35 , icon , 60 , 60 , GREEN )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -13056,18 +13056,18 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2543</v>
+        <v>4629</v>
       </c>
       <c r="D372" t="n">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         case CSH_VEND_DENIED            : VendDenied (  )  ;            break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         memset ( gen_key_other_data ,  0 ,  sizeof ( gen_key_other_data )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -13090,18 +13090,18 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3489</v>
+        <v>2543</v>
       </c>
       <c r="D373" t="n">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int pot1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         case CSH_VEND_DENIED            : VendDenied (  )  ;            break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -13124,18 +13124,18 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4624</v>
+        <v>3489</v>
       </c>
       <c r="D374" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; static int pot1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -13158,18 +13158,18 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>447</v>
+        <v>4624</v>
       </c>
       <c r="D375" t="n">
-        <v>538</v>
+        <v>100</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( USB_BUS_SENSE )  { stopCondition = NOT_STARTED_WAIT_USB ;  restart = 1 ;  break ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H375" t="n">
@@ -13192,18 +13192,18 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4115</v>
+        <v>447</v>
       </c>
       <c r="D376" t="n">
-        <v>148</v>
+        <v>538</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( USB_BUS_SENSE )  { stopCondition = NOT_STARTED_WAIT_USB ;  restart = 1 ;  break ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -13213,11 +13213,11 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">

--- a/dataset/vector1.xlsx
+++ b/dataset/vector1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,18 +918,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>378</v>
+        <v>876</v>
       </c>
       <c r="D15" t="n">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>&lt;start&gt; NOT_STARTED_WAIT_USB        = 6 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt;     return ret == 1 ? count : 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -952,18 +952,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1032</v>
+        <v>378</v>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>&lt;start&gt; aesEncrypt ( out ,  buffer ,  expanded_key )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; NOT_STARTED_WAIT_USB        = 6 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -986,18 +986,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4115</v>
+        <v>1032</v>
       </c>
       <c r="D17" t="n">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; aesEncrypt ( out ,  buffer ,  expanded_key )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2890,18 +2890,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>235</v>
+        <v>3295</v>
       </c>
       <c r="D73" t="n">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( lastSampleTicks == 0 )  { lastSampleTicks = now ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;     Status = ecc_mul_double (  ( digit_t* )  ( Signature+32 )  ,  A ,   ( digit_t* ) h ,  A )  ;        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2911,11 +2911,11 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2924,18 +2924,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3295</v>
+        <v>3344</v>
       </c>
       <c r="D74" t="n">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Status = ecc_mul_double (  ( digit_t* )  ( Signature+32 )  ,  A ,   ( digit_t* ) h ,  A )  ;        &lt;end&gt;</t>
+          <t>&lt;start&gt; g_autoptr ( EVP_CIPHER_CTX )  ctx = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2958,18 +2958,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3344</v>
+        <v>2122</v>
       </c>
       <c r="D75" t="n">
-        <v>47</v>
+        <v>641</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_autoptr ( EVP_CIPHER_CTX )  ctx = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2992,18 +2992,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2122</v>
+        <v>2984</v>
       </c>
       <c r="D76" t="n">
-        <v>641</v>
+        <v>830</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         extern const char *iotx_ca_crt ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3026,18 +3026,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2984</v>
+        <v>2261</v>
       </c>
       <c r="D77" t="n">
-        <v>830</v>
+        <v>28</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0xfd , 0xff , 0x81 , 0xf0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3060,18 +3060,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2261</v>
+        <v>4320</v>
       </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>357</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0xfd , 0xff , 0x81 , 0xf0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     PcdAntennaOff (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3094,18 +3094,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4320</v>
+        <v>1990</v>
       </c>
       <c r="D79" t="n">
-        <v>357</v>
+        <v>498</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     PcdAntennaOff (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3128,18 +3128,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1990</v>
+        <v>2901</v>
       </c>
       <c r="D80" t="n">
-        <v>498</v>
+        <v>720</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3162,18 +3162,18 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2901</v>
+        <v>1475</v>
       </c>
       <c r="D81" t="n">
-        <v>720</v>
+        <v>674</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3196,18 +3196,18 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1475</v>
+        <v>4618</v>
       </c>
       <c r="D82" t="n">
-        <v>674</v>
+        <v>94</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         nonce_params.rand_out = rand_out ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3230,18 +3230,18 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4618</v>
+        <v>4405</v>
       </c>
       <c r="D83" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         nonce_params.rand_out = rand_out ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "../build/include/sdkconfig.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3264,18 +3264,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4405</v>
+        <v>3938</v>
       </c>
       <c r="D84" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "../build/include/sdkconfig.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;                     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3298,18 +3298,18 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3938</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     } &lt;end&gt;</t>
+          <t>&lt;start&gt; static void UsbWrite ( const void *buffer ,  unsigned int len )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3332,18 +3332,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>100</v>
+        <v>3690</v>
       </c>
       <c r="D86" t="n">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static void UsbWrite ( const void *buffer ,  unsigned int len )  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3370,14 +3370,14 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3690</v>
+        <v>3484</v>
       </c>
       <c r="D87" t="n">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; unsigned char keypad[4][4] = {{'1' , '4' , '7' , '*'} , {'2' , '5' , '8' , '0'} , {'3' , '6' , '9' , '#'} , {'A' , 'B' , 'C' , 'D'}} ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3400,18 +3400,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3484</v>
+        <v>4376</v>
       </c>
       <c r="D88" t="n">
-        <v>28</v>
+        <v>415</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>&lt;start&gt; unsigned char keypad[4][4] = {{'1' , '4' , '7' , '*'} , {'2' , '5' , '8' , '0'} , {'3' , '6' , '9' , '#'} , {'A' , 'B' , 'C' , 'D'}} ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 OLED_DrawPoint ( x + 2 + offsetx ,  y ,  0 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3434,18 +3434,18 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4376</v>
+        <v>973</v>
       </c>
       <c r="D89" t="n">
-        <v>415</v>
+        <v>231</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 OLED_DrawPoint ( x + 2 + offsetx ,  y ,  0 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3472,14 +3472,14 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>973</v>
+        <v>806</v>
       </c>
       <c r="D90" t="n">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; rt_err_t rt_i2c_bus_attach_device ( struct rt_i2c_device* device ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3502,18 +3502,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>806</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>&lt;start&gt; rt_err_t rt_i2c_bus_attach_device ( struct rt_i2c_device* device ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "Peripherals/Rtc.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3536,18 +3536,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
       <c r="D92" t="n">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "Peripherals/Rtc.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3570,18 +3570,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3400</v>
+        <v>435</v>
       </c>
       <c r="D93" t="n">
-        <v>111</v>
+        <v>521</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3604,18 +3604,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>435</v>
+        <v>4458</v>
       </c>
       <c r="D94" t="n">
-        <v>521</v>
+        <v>88</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     { &lt;end&gt;</t>
+          <t>&lt;start&gt;             wifi_connection (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3638,18 +3638,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4458</v>
+        <v>1512</v>
       </c>
       <c r="D95" t="n">
-        <v>88</v>
+        <v>715</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             wifi_connection (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( memcmp ( &amp; ( what_storage_should_be[i] )  ,  buffer ,  128 )  )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3672,18 +3672,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1512</v>
+        <v>3725</v>
       </c>
       <c r="D96" t="n">
-        <v>715</v>
+        <v>269</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( memcmp ( &amp; ( what_storage_should_be[i] )  ,  buffer ,  128 )  )  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_clrscr (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3706,18 +3706,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3725</v>
+        <v>4305</v>
       </c>
       <c r="D97" t="n">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_clrscr (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void RC522_System_Init ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3740,18 +3740,18 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4305</v>
+        <v>1773</v>
       </c>
       <c r="D98" t="n">
-        <v>342</v>
+        <v>235</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RC522_System_Init ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto err ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3774,18 +3774,18 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1773</v>
+        <v>979</v>
       </c>
       <c r="D99" t="n">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto err ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "test_helpers.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3808,18 +3808,18 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>979</v>
+        <v>1886</v>
       </c>
       <c r="D100" t="n">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "test_helpers.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       iotx_http_context-&gt;p_devinfo-&gt;device_name ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3842,18 +3842,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1886</v>
+        <v>1551</v>
       </c>
       <c r="D101" t="n">
-        <v>372</v>
+        <v>756</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       iotx_http_context-&gt;p_devinfo-&gt;device_name ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3876,18 +3876,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1551</v>
+        <v>2082</v>
       </c>
       <c r="D102" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "IOT_HTTP_SendMessage request_payload NULL!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3914,14 +3914,14 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2082</v>
+        <v>2139</v>
       </c>
       <c r="D103" t="n">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "IOT_HTTP_SendMessage request_payload NULL!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         httpclient_close ( httpc )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3944,18 +3944,18 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2139</v>
+        <v>2622</v>
       </c>
       <c r="D104" t="n">
-        <v>659</v>
+        <v>350</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         httpclient_close ( httpc )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_Peek ( uint16_t *data )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3982,14 +3982,14 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2622</v>
+        <v>2891</v>
       </c>
       <c r="D105" t="n">
-        <v>350</v>
+        <v>708</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_Peek ( uint16_t *data )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4016,14 +4016,14 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2891</v>
+        <v>2809</v>
       </c>
       <c r="D106" t="n">
-        <v>708</v>
+        <v>596</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     periph_id[29] = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2809</v>
+        <v>369</v>
       </c>
       <c r="D107" t="n">
-        <v>596</v>
+        <v>447</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     periph_id[29] = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4080,18 +4080,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>369</v>
+        <v>3545</v>
       </c>
       <c r="D108" t="n">
-        <v>447</v>
+        <v>89</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>&lt;start&gt; {  &lt;end&gt;</t>
+          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4114,18 +4114,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3545</v>
+        <v>1405</v>
       </c>
       <c r="D109" t="n">
-        <v>89</v>
+        <v>598</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; free ( compare )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4148,18 +4148,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1405</v>
+        <v>4638</v>
       </c>
       <c r="D110" t="n">
-        <v>598</v>
+        <v>117</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>&lt;start&gt; free ( compare )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4182,18 +4182,18 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4638</v>
+        <v>1993</v>
       </c>
       <c r="D111" t="n">
-        <v>117</v>
+        <v>501</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( NULL == pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4216,18 +4216,18 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1993</v>
+        <v>2618</v>
       </c>
       <c r="D112" t="n">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( NULL == pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; void MDB_Read ( uint16_t *data )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2618</v>
+        <v>2272</v>
       </c>
       <c r="D113" t="n">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void MDB_Read ( uint16_t *data )  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0xf8 , 0x0 , 0xf , 0x7 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4284,18 +4284,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2272</v>
+        <v>1678</v>
       </c>
       <c r="D114" t="n">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0xf8 , 0x0 , 0xf , 0x7 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;         } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4318,18 +4318,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1678</v>
+        <v>4699</v>
       </c>
       <c r="D115" t="n">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         } &lt;end&gt;</t>
+          <t>&lt;start&gt;         { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4352,18 +4352,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4699</v>
+        <v>646</v>
       </c>
       <c r="D116" t="n">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         { &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "dhsender_queue.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4386,18 +4386,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>646</v>
+        <v>832</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "dhsender_queue.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;                           rt_uint16_t addr ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4420,18 +4420,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>832</v>
+        <v>4158</v>
       </c>
       <c r="D118" t="n">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                           rt_uint16_t addr ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4454,18 +4454,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4158</v>
+        <v>344</v>
       </c>
       <c r="D119" t="n">
-        <v>191</v>
+        <v>421</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             char c0 ,  c1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4488,18 +4488,18 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>344</v>
+        <v>3571</v>
       </c>
       <c r="D120" t="n">
-        <v>421</v>
+        <v>115</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             char c0 ,  c1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagWrongPass == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4509,11 +4509,11 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5750,14 +5750,14 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D157" t="n">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( inactive &gt; 3 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     FtlShutdown (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5780,18 +5780,18 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>277</v>
+        <v>1285</v>
       </c>
       <c r="D158" t="n">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     FtlShutdown (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; tweak_key[i] =  ( uint8_t ) value ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5814,18 +5814,18 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1285</v>
+        <v>238</v>
       </c>
       <c r="D159" t="n">
-        <v>473</v>
+        <v>306</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>&lt;start&gt; tweak_key[i] =  ( uint8_t ) value ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     accel_t accelSample ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5848,18 +5848,18 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>238</v>
+        <v>3168</v>
       </c>
       <c r="D160" t="n">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     accel_t accelSample ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     ecc_mul_fixed (  ( digit_t* ) k ,  P )  ;            &lt;end&gt;</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3168</v>
+        <v>4469</v>
       </c>
       <c r="D161" t="n">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     ecc_mul_fixed (  ( digit_t* ) k ,  P )  ;            &lt;end&gt;</t>
+          <t>&lt;start&gt;             xEventGroupClearBits ( wifi_event_group ,  CONNECTED_BIT )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5916,18 +5916,18 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>4469</v>
+        <v>1688</v>
       </c>
       <c r="D162" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             xEventGroupClearBits ( wifi_event_group ,  CONNECTED_BIT )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5950,18 +5950,18 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1688</v>
+        <v>4065</v>
       </c>
       <c r="D163" t="n">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LITE_snprintf ( buf ,  IOTX_HTTP_URL_LEN_MAX ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5984,18 +5984,18 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4065</v>
+        <v>152</v>
       </c>
       <c r="D164" t="n">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( !USB_BUS_SENSE )        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -6018,18 +6018,18 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>152</v>
+        <v>1633</v>
       </c>
       <c r="D165" t="n">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( !USB_BUS_SENSE )        &lt;end&gt;</t>
+          <t>&lt;start&gt;     IOTX_HTTP_HEADER_PASSWORD_STR \ &lt;end&gt;</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -6052,18 +6052,18 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1633</v>
+        <v>3199</v>
       </c>
       <c r="D166" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     IOTX_HTTP_HEADER_PASSWORD_STR \ &lt;end&gt;</t>
+          <t>&lt;start&gt;     clear_words (  ( unsigned int* ) PublicKey ,  256/ ( sizeof ( unsigned int ) *8 )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6086,18 +6086,18 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3199</v>
+        <v>2727</v>
       </c>
       <c r="D167" t="n">
-        <v>65</v>
+        <v>501</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     clear_words (  ( unsigned int* ) PublicKey ,  256/ ( sizeof ( unsigned int ) *8 )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     MDB_Send ( CSH_SESSION_CANCEL_REQUEST )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6120,18 +6120,18 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2727</v>
+        <v>1772</v>
       </c>
       <c r="D168" t="n">
-        <v>501</v>
+        <v>234</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     MDB_Send ( CSH_SESSION_CANCEL_REQUEST )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "Allocate memory for auth token failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6154,18 +6154,18 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1772</v>
+        <v>3754</v>
       </c>
       <c r="D169" t="n">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "Allocate memory for auth token failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_puts ( &amp;output[i] )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6188,18 +6188,18 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3754</v>
+        <v>2551</v>
       </c>
       <c r="D170" t="n">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_puts ( &amp;output[i] )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6222,18 +6222,18 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2551</v>
+        <v>4186</v>
       </c>
       <c r="D171" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;                     ws2812bSetAll ( RED )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6256,18 +6256,18 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4186</v>
+        <v>145</v>
       </c>
       <c r="D172" t="n">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     ws2812bSetAll ( RED )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Reset (  )  ;                  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6290,18 +6290,18 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>145</v>
+        <v>2390</v>
       </c>
       <c r="D173" t="n">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Reset (  )  ;                  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6328,14 +6328,14 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="D174" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextSize ( 2 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6358,18 +6358,18 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2380</v>
+        <v>227</v>
       </c>
       <c r="D175" t="n">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   display.setTextColor ( WHITE )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6396,14 +6396,14 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>227</v>
+        <v>562</v>
       </c>
       <c r="D176" t="n">
-        <v>294</v>
+        <v>676</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;                             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6426,18 +6426,18 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>562</v>
+        <v>2065</v>
       </c>
       <c r="D177" t="n">
-        <v>676</v>
+        <v>583</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             } &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "iotx_http_context or msg_param NULL pointer!" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6460,18 +6460,18 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2065</v>
+        <v>1044</v>
       </c>
       <c r="D178" t="n">
-        <v>583</v>
+        <v>151</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "iotx_http_context or msg_param NULL pointer!" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; xexEnDecrypt ( out ,  in ,  n ,  seq ,  tweak_key ,  encrypt_key ,  true )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6494,18 +6494,18 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1044</v>
+        <v>3246</v>
       </c>
       <c r="D179" t="n">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>&lt;start&gt; xexEnDecrypt ( out ,  in ,  n ,  seq ,  tweak_key ,  encrypt_key ,  true )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     Montgomery_multiply_mod_order ( S ,  H ,  S )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6528,18 +6528,18 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3246</v>
+        <v>1396</v>
       </c>
       <c r="D180" t="n">
-        <v>115</v>
+        <v>589</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Montgomery_multiply_mod_order ( S ,  H ,  S )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; printBigEndian16 ( plaintext )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6562,18 +6562,18 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1396</v>
+        <v>817</v>
       </c>
       <c r="D181" t="n">
-        <v>589</v>
+        <v>73</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>&lt;start&gt; printBigEndian16 ( plaintext )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         device-&gt;bus =  ( struct rt_i2c_bus* ) bus ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6596,18 +6596,18 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>817</v>
+        <v>2257</v>
       </c>
       <c r="D182" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         device-&gt;bus =  ( struct rt_i2c_bus* ) bus ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x0 , 0x7 , 0xff , 0xfe , 0x0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6630,18 +6630,18 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2257</v>
+        <v>2935</v>
       </c>
       <c r="D183" t="n">
-        <v>24</v>
+        <v>759</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x0 , 0x7 , 0xff , 0xfe , 0x0 , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6668,14 +6668,14 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2935</v>
+        <v>2879</v>
       </c>
       <c r="D184" t="n">
-        <v>759</v>
+        <v>688</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 3 ;  ++i )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6698,18 +6698,18 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2879</v>
+        <v>4450</v>
       </c>
       <c r="D185" t="n">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 3 ;  ++i )  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6732,18 +6732,18 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4450</v>
+        <v>2661</v>
       </c>
       <c r="D186" t="n">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6770,14 +6770,14 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2661</v>
+        <v>2632</v>
       </c>
       <c r="D187" t="n">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; void Reset ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6800,18 +6800,18 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2632</v>
+        <v>4120</v>
       </c>
       <c r="D188" t="n">
-        <v>370</v>
+        <v>153</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void Reset ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         OLED_ShowString ( 0 ,  48 ,  "......" ,  16 ,  1 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6834,18 +6834,18 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4120</v>
+        <v>2171</v>
       </c>
       <c r="D189" t="n">
-        <v>153</v>
+        <v>702</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         OLED_ShowString ( 0 ,  48 ,  "......" ,  16 ,  1 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             iotx_http_context-&gt;is_authed = IOT_FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2171</v>
+        <v>2768</v>
       </c>
       <c r="D190" t="n">
-        <v>702</v>
+        <v>546</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             iotx_http_context-&gt;is_authed = IOT_FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6906,14 +6906,14 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2768</v>
+        <v>2882</v>
       </c>
       <c r="D191" t="n">
-        <v>546</v>
+        <v>691</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         vend_data[i] =  ( uint8_t )  ( vend_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6936,18 +6936,18 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2882</v>
+        <v>70</v>
       </c>
       <c r="D192" t="n">
-        <v>691</v>
+        <v>110</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         vend_data[i] =  ( uint8_t )  ( vend_temp &amp; 0x00FF )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;     LoggerGyroTasks (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6970,18 +6970,18 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>70</v>
+        <v>1216</v>
       </c>
       <c r="D193" t="n">
-        <v>110</v>
+        <v>399</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LoggerGyroTasks (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; test_number = 1 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7004,18 +7004,18 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1216</v>
+        <v>4511</v>
       </c>
       <c r="D194" t="n">
-        <v>399</v>
+        <v>144</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>&lt;start&gt; test_number = 1 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         sleep ( 1 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7038,18 +7038,18 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4511</v>
+        <v>3968</v>
       </c>
       <c r="D195" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         sleep ( 1 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                         turnOnWifiChip ( FALSE )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7072,18 +7072,18 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3968</v>
+        <v>2016</v>
       </c>
       <c r="D196" t="n">
-        <v>160</v>
+        <v>526</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         turnOnWifiChip ( FALSE )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( SUCCESS_RETURN != ret )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -7106,18 +7106,18 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2016</v>
+        <v>4323</v>
       </c>
       <c r="D197" t="n">
-        <v>526</v>
+        <v>360</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( SUCCESS_RETURN != ret )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     LED_ON ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -7140,18 +7140,18 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4323</v>
+        <v>4718</v>
       </c>
       <c r="D198" t="n">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     LED_ON ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7174,18 +7174,18 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3620</v>
+        <v>1237</v>
       </c>
       <c r="D199" t="n">
-        <v>164</v>
+        <v>421</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; seen_count = true ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7195,11 +7195,11 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7208,18 +7208,18 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4718</v>
+        <v>24</v>
       </c>
       <c r="D200" t="n">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "AX3 SelfTest.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7242,18 +7242,18 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1237</v>
+        <v>3326</v>
       </c>
       <c r="D201" t="n">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>&lt;start&gt; seen_count = true ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7276,18 +7276,18 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>24</v>
+        <v>1794</v>
       </c>
       <c r="D202" t="n">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "AX3 SelfTest.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;         http_err ( "Allocate memory for iotx_http_context-&gt;httpc failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7310,18 +7310,18 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3326</v>
+        <v>2731</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7344,18 +7344,18 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1794</v>
+        <v>28</v>
       </c>
       <c r="D204" t="n">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         http_err ( "Allocate memory for iotx_http_context-&gt;httpc failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void RunLogging ( void )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7378,18 +7378,18 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2731</v>
+        <v>2014</v>
       </c>
       <c r="D205" t="n">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7416,14 +7416,14 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>28</v>
+        <v>545</v>
       </c>
       <c r="D206" t="n">
-        <v>58</v>
+        <v>657</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RunLogging ( void )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7446,18 +7446,18 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2014</v>
+        <v>3290</v>
       </c>
       <c r="D207" t="n">
-        <v>523</v>
+        <v>162</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7467,11 +7467,11 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -7480,18 +7480,18 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>545</v>
+        <v>3338</v>
       </c>
       <c r="D208" t="n">
-        <v>657</v>
+        <v>24</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             } &lt;end&gt;</t>
+          <t>&lt;start&gt; memcpy ( iv ,  &amp;iv_val ,  sizeof ( guint64 )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7514,18 +7514,18 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3338</v>
+        <v>2364</v>
       </c>
       <c r="D209" t="n">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>&lt;start&gt; memcpy ( iv ,  &amp;iv_val ,  sizeof ( guint64 )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;    display.setCursor ( 20 , 50 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7548,18 +7548,18 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2364</v>
+        <v>864</v>
       </c>
       <c r="D210" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>&lt;start&gt;    display.setCursor ( 20 , 50 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                              rt_uint32_t count )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7582,18 +7582,18 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>864</v>
+        <v>3526</v>
       </c>
       <c r="D211" t="n">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                              rt_uint32_t count )  &lt;end&gt;</t>
+          <t>&lt;start&gt; row = FIRST_ROW ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7616,18 +7616,18 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3526</v>
+        <v>696</v>
       </c>
       <c r="D212" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>&lt;start&gt; row = FIRST_ROW ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; case FLASH_SIZE_32M_MAP_1024_1024: &lt;end&gt;</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7650,18 +7650,18 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>696</v>
+        <v>3411</v>
       </c>
       <c r="D213" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>&lt;start&gt; case FLASH_SIZE_32M_MAP_1024_1024: &lt;end&gt;</t>
+          <t>&lt;start&gt; g_return_val_if_fail ( error == NULL || *error == NULL ,  FALSE )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7684,18 +7684,18 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3411</v>
+        <v>434</v>
       </c>
       <c r="D214" t="n">
-        <v>122</v>
+        <v>520</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_return_val_if_fail ( error == NULL || *error == NULL ,  FALSE )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7718,18 +7718,18 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>434</v>
+        <v>3969</v>
       </c>
       <c r="D215" t="n">
-        <v>520</v>
+        <v>161</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     else &lt;end&gt;</t>
+          <t>&lt;start&gt;                         lockDeadBolt ( TRUE )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7752,18 +7752,18 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3969</v>
+        <v>3380</v>
       </c>
       <c r="D216" t="n">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         lockDeadBolt ( TRUE )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7786,18 +7786,18 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3380</v>
+        <v>4077</v>
       </c>
       <c r="D217" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7820,18 +7820,18 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4077</v>
+        <v>3055</v>
       </c>
       <c r="D218" t="n">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7854,18 +7854,18 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3055</v>
+        <v>1021</v>
       </c>
       <c r="D219" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; doubleInGF ( delta )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7888,18 +7888,18 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1021</v>
+        <v>3591</v>
       </c>
       <c r="D220" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>&lt;start&gt; doubleInGF ( delta )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTC |= _BV ( 0 )  | _BV ( 1 )  | _BV ( 6 )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7922,18 +7922,18 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3591</v>
+        <v>380</v>
       </c>
       <c r="D221" t="n">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTC |= _BV ( 0 )  | _BV ( 1 )  | _BV ( 6 )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; NOT_STARTED_INITIAL_BATTERY = 8 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7956,18 +7956,18 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>380</v>
+        <v>3225</v>
       </c>
       <c r="D222" t="n">
-        <v>458</v>
+        <v>94</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>&lt;start&gt; NOT_STARTED_INITIAL_BATTERY = 8 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7990,18 +7990,18 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3225</v>
+        <v>4536</v>
       </c>
       <c r="D223" t="n">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     memmove ( temp+64 ,  Message ,  SizeMessage )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8024,18 +8024,18 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>4536</v>
+        <v>1822</v>
       </c>
       <c r="D224" t="n">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #else &lt;end&gt;</t>
+          <t>&lt;start&gt;         return ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8058,18 +8058,18 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1822</v>
+        <v>4187</v>
       </c>
       <c r="D225" t="n">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8096,14 +8096,14 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4187</v>
+        <v>4337</v>
       </c>
       <c r="D226" t="n">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     OLED_Clear (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     int i ,  j = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8126,18 +8126,18 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4337</v>
+        <v>642</v>
       </c>
       <c r="D227" t="n">
-        <v>375</v>
+        <v>770</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     int i ,  j = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     return ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8160,18 +8160,18 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>642</v>
+        <v>3540</v>
       </c>
       <c r="D228" t="n">
-        <v>770</v>
+        <v>84</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     return ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; asm ( "NOP" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8194,18 +8194,18 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3540</v>
+        <v>2615</v>
       </c>
       <c r="D229" t="n">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>&lt;start&gt; asm ( "NOP" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8228,18 +8228,18 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2615</v>
+        <v>3427</v>
       </c>
       <c r="D230" t="n">
-        <v>337</v>
+        <v>138</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; res = FALSE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8262,18 +8262,18 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3427</v>
+        <v>1744</v>
       </c>
       <c r="D231" t="n">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>&lt;start&gt; res = FALSE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     iotx_http_t        *iotx_http_context ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8296,18 +8296,18 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1744</v>
+        <v>3208</v>
       </c>
       <c r="D232" t="n">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     iotx_http_t        *iotx_http_context ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     unsigned char k[64] ,  r[64] ,  h[64] ,  *temp = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8330,18 +8330,18 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3208</v>
+        <v>1669</v>
       </c>
       <c r="D233" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     unsigned char k[64] ,  r[64] ,  h[64] ,  *temp = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         switch  ( *++p )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8364,18 +8364,18 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1669</v>
+        <v>4764</v>
       </c>
       <c r="D234" t="n">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         switch  ( *++p )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -8398,18 +8398,18 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>4764</v>
+        <v>3472</v>
       </c>
       <c r="D235" t="n">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #define CONFIRM_SOUND 2 &lt;end&gt;</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8432,18 +8432,18 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3472</v>
+        <v>4184</v>
       </c>
       <c r="D236" t="n">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define CONFIRM_SOUND 2 &lt;end&gt;</t>
+          <t>&lt;start&gt;                     relay_off (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8466,18 +8466,18 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4184</v>
+        <v>3477</v>
       </c>
       <c r="D237" t="n">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     relay_off (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #define PASS_LENGHT 4 &lt;end&gt;</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8500,18 +8500,18 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3477</v>
+        <v>2657</v>
       </c>
       <c r="D238" t="n">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define PASS_LENGHT 4 &lt;end&gt;</t>
+          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8534,18 +8534,18 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2657</v>
+        <v>412</v>
       </c>
       <c r="D239" t="n">
-        <v>397</v>
+        <v>495</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>&lt;start&gt;          ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void RunLogging ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8568,18 +8568,18 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>412</v>
+        <v>2725</v>
       </c>
       <c r="D240" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void RunLogging ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; void SessionCancelRequest ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8602,18 +8602,18 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2725</v>
+        <v>1379</v>
       </c>
       <c r="D241" t="n">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void SessionCancelRequest ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8636,18 +8636,18 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1379</v>
+        <v>4713</v>
       </c>
       <c r="D242" t="n">
-        <v>572</v>
+        <v>206</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  (  ( status = publickey_validate ( true )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H242" t="n">
@@ -8670,18 +8670,18 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4713</v>
+        <v>3592</v>
       </c>
       <c r="D243" t="n">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  (  ( status = publickey_validate ( true )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA &amp;= ~ ( _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -8704,18 +8704,18 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3592</v>
+        <v>313</v>
       </c>
       <c r="D244" t="n">
-        <v>136</v>
+        <v>387</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA &amp;= ~ ( _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt;                 { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8738,18 +8738,18 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>313</v>
+        <v>3217</v>
       </c>
       <c r="D245" t="n">
-        <v>387</v>
+        <v>86</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 { &lt;end&gt;</t>
+          <t>&lt;start&gt;      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8772,18 +8772,18 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3217</v>
+        <v>4445</v>
       </c>
       <c r="D246" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      &lt;end&gt;</t>
+          <t>&lt;start&gt;     Log_i ( "Setting WiFi configuration SSID %s..." ,  wifi_config.sta.ssid )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8806,18 +8806,18 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4445</v>
+        <v>3801</v>
       </c>
       <c r="D247" t="n">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     Log_i ( "Setting WiFi configuration SSID %s..." ,  wifi_config.sta.ssid )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; TIMSK = _BV ( OCIE0 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8840,18 +8840,18 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3801</v>
+        <v>856</v>
       </c>
       <c r="D248" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>&lt;start&gt; TIMSK = _BV ( OCIE0 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         return 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8874,18 +8874,18 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>856</v>
+        <v>4643</v>
       </c>
       <c r="D249" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         return 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         sign_params.key_id = authority_key_slot ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8908,18 +8908,18 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4643</v>
+        <v>2993</v>
       </c>
       <c r="D250" t="n">
-        <v>122</v>
+        <v>847</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         sign_params.key_id = authority_key_slot ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint16_t CSH_GetUserFunds ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8942,18 +8942,18 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>163</v>
+        <v>866</v>
       </c>
       <c r="D251" t="n">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( FSInit (  ) !=TRUE )                            &lt;end&gt;</t>
+          <t>&lt;start&gt;     rt_size_t ret ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8963,11 +8963,11 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -8976,18 +8976,18 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2993</v>
+        <v>4403</v>
       </c>
       <c r="D252" t="n">
-        <v>847</v>
+        <v>31</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint16_t CSH_GetUserFunds ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "qrcode.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9010,18 +9010,18 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>866</v>
+        <v>4529</v>
       </c>
       <c r="D253" t="n">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     rt_size_t ret ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     wifi_connected = wait_for_wifi_ready ( CONNECTED_BIT ,  20 ,  1000 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -9044,18 +9044,18 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4403</v>
+        <v>3286</v>
       </c>
       <c r="D254" t="n">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "qrcode.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;     memmove ( temp ,  Signature ,  32 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -9078,18 +9078,18 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>4529</v>
+        <v>3710</v>
       </c>
       <c r="D255" t="n">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     wifi_connected = wait_for_wifi_ready ( CONNECTED_BIT ,  20 ,  1000 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; flagPot = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -9112,18 +9112,18 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3286</v>
+        <v>1446</v>
       </c>
       <c r="D256" t="n">
-        <v>158</v>
+        <v>642</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     memmove ( temp ,  Signature ,  32 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -9146,18 +9146,18 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3710</v>
+        <v>2825</v>
       </c>
       <c r="D257" t="n">
-        <v>254</v>
+        <v>613</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>&lt;start&gt; flagPot = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     malf_err[1] = csh_error_code ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9180,14 +9180,14 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1446</v>
+        <v>3755</v>
       </c>
       <c r="D258" t="n">
-        <v>642</v>
+        <v>299</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -9214,18 +9214,18 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2825</v>
+        <v>3214</v>
       </c>
       <c r="D259" t="n">
-        <v>613</v>
+        <v>83</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     malf_err[1] = csh_error_code ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         Status = ECCRYPTO_ERROR ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9248,18 +9248,18 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3755</v>
+        <v>2976</v>
       </c>
       <c r="D260" t="n">
-        <v>299</v>
+        <v>820</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -9282,18 +9282,18 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3214</v>
+        <v>3532</v>
       </c>
       <c r="D261" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         Status = ECCRYPTO_ERROR ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -9316,18 +9316,18 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2976</v>
+        <v>1621</v>
       </c>
       <c r="D262" t="n">
-        <v>820</v>
+        <v>64</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  (  !  ( USART_TXBuf_IsEmpty (  )  )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt; #endif &lt;end&gt;</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -9350,18 +9350,18 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3532</v>
+        <v>889</v>
       </c>
       <c r="D263" t="n">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     msg.flags = flags &amp; RT_I2C_ADDR_10BIT ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -9384,18 +9384,18 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1621</v>
+        <v>4724</v>
       </c>
       <c r="D264" t="n">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #endif &lt;end&gt;</t>
+          <t>&lt;start&gt;         } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9418,18 +9418,18 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>889</v>
+        <v>355</v>
       </c>
       <c r="D265" t="n">
-        <v>147</v>
+        <v>432</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     msg.flags = flags &amp; RT_I2C_ADDR_10BIT ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -9452,18 +9452,18 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4724</v>
+        <v>984</v>
       </c>
       <c r="D266" t="n">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         } &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "aes.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9486,18 +9486,18 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>355</v>
+        <v>3073</v>
       </c>
       <c r="D267" t="n">
-        <v>432</v>
+        <v>46</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt; _delay_ms ( 500 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9520,18 +9520,18 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>984</v>
+        <v>2425</v>
       </c>
       <c r="D268" t="n">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "aes.h" &lt;end&gt;</t>
+          <t>&lt;start&gt;   return finger.fingerID ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9554,18 +9554,18 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3073</v>
+        <v>1113</v>
       </c>
       <c r="D269" t="n">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>&lt;start&gt; _delay_ms ( 500 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; return NV_INVALID_ADDRESS ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9588,18 +9588,18 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>449</v>
+        <v>3905</v>
       </c>
       <c r="D270" t="n">
-        <v>540</v>
+        <v>96</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( settings.debuggingInfo &gt;= 1 || status.debugFlashCount &gt; 0 )  { LED_SET ( LED_YELLOW )  ;  if  ( status.debugFlashCount &gt; 0 )  status.debugFlashCount-- ;  Delay10us ( 5 )  ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;                 sendUpdate (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9609,11 +9609,11 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -9622,18 +9622,18 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2425</v>
+        <v>3182</v>
       </c>
       <c r="D271" t="n">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   return finger.fingerID ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9656,18 +9656,18 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1113</v>
+        <v>3663</v>
       </c>
       <c r="D272" t="n">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return NV_INVALID_ADDRESS ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if (  ( adcConversion &lt;= ADC_PLUS &amp;&amp; adcConversion &gt;= ADC_MINUS )  &amp;&amp; flagPot == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H272" t="n">
@@ -9690,18 +9690,18 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3905</v>
+        <v>1210</v>
       </c>
       <c r="D273" t="n">
-        <v>96</v>
+        <v>393</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 sendUpdate (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; printf ( "value ,  and one with a \"data unit sequence number\" as the tweak value.\n" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9724,18 +9724,18 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3182</v>
+        <v>923</v>
       </c>
       <c r="D274" t="n">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>&lt;start&gt; {  &lt;end&gt;</t>
+          <t>&lt;start&gt;     struct rt_i2c_device* i2c_device =  ( struct rt_i2c_device* ) i2c_dev ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9758,18 +9758,18 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3663</v>
+        <v>3454</v>
       </c>
       <c r="D275" t="n">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if (  ( adcConversion &lt;= ADC_PLUS &amp;&amp; adcConversion &gt;= ADC_MINUS )  &amp;&amp; flagPot == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; return r_crypt_encrypt_or_decrypt ( in ,  out ,  key ,  FALSE ,  maxsize ,  error )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9779,11 +9779,11 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -9792,18 +9792,18 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1210</v>
+        <v>2944</v>
       </c>
       <c r="D276" t="n">
-        <v>393</v>
+        <v>772</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>&lt;start&gt; printf ( "value ,  and one with a \"data unit sequence number\" as the tweak value.\n" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9826,18 +9826,18 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>923</v>
+        <v>4591</v>
       </c>
       <c r="D277" t="n">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     struct rt_i2c_device* i2c_device =  ( struct rt_i2c_device* ) i2c_dev ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     atca_nonce_in_out_t nonce_params ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9860,18 +9860,18 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>3454</v>
+        <v>3160</v>
       </c>
       <c r="D278" t="n">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return r_crypt_encrypt_or_decrypt ( in ,  out ,  key ,  FALSE ,  maxsize ,  error )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     unsigned char k[64] ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9894,18 +9894,18 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2944</v>
+        <v>1612</v>
       </c>
       <c r="D279" t="n">
-        <v>772</v>
+        <v>55</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9928,18 +9928,18 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4591</v>
+        <v>3541</v>
       </c>
       <c r="D280" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     atca_nonce_in_out_t nonce_params ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9962,18 +9962,18 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3160</v>
+        <v>350</v>
       </c>
       <c r="D281" t="n">
-        <v>23</v>
+        <v>427</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     unsigned char k[64] ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9996,18 +9996,18 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1612</v>
+        <v>4018</v>
       </c>
       <c r="D282" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( Key_Scan ( GPIOB ,  GPIO_Pin_12 )  == KEY_ON )   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H282" t="n">
@@ -10030,18 +10030,18 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3541</v>
+        <v>2049</v>
       </c>
       <c r="D283" t="n">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>&lt;start&gt; column =  ( KEY_PIN &amp; 0x0F )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     char               *pvalue = NULL ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -10068,14 +10068,14 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="D284" t="n">
-        <v>427</v>
+        <v>666</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 if  ( FSDiskFree (  )  == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -10085,11 +10085,11 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -10098,18 +10098,18 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4018</v>
+        <v>271</v>
       </c>
       <c r="D285" t="n">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( Key_Scan ( GPIOB ,  GPIO_Pin_12 )  == KEY_ON )   &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -10132,18 +10132,18 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2049</v>
+        <v>3808</v>
       </c>
       <c r="D286" t="n">
-        <v>560</v>
+        <v>352</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     char               *pvalue = NULL ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; lcd_init ( LCD_DISP_ON )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -10170,14 +10170,14 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>271</v>
+        <v>497</v>
       </c>
       <c r="D287" t="n">
-        <v>340</v>
+        <v>596</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -10200,18 +10200,18 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3808</v>
+        <v>1630</v>
       </c>
       <c r="D288" t="n">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>&lt;start&gt; lcd_init ( LCD_DISP_ON )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #define IOTX_HTTP_HEADER_PASSWORD_STR   "password:" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -10234,18 +10234,18 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>497</v>
+        <v>2645</v>
       </c>
       <c r="D289" t="n">
-        <v>596</v>
+        <v>385</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
+          <t>&lt;start&gt;     MDB_Send ( CSH_ACK )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10268,18 +10268,18 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1630</v>
+        <v>467</v>
       </c>
       <c r="D290" t="n">
-        <v>73</v>
+        <v>562</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #define IOTX_HTTP_HEADER_PASSWORD_STR   "password:" &lt;end&gt;</t>
+          <t>&lt;start&gt;         { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10302,18 +10302,18 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2645</v>
+        <v>379</v>
       </c>
       <c r="D291" t="n">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     MDB_Send ( CSH_ACK )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; STOP_USB                    = 7 ,      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10336,18 +10336,18 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>467</v>
+        <v>4517</v>
       </c>
       <c r="D292" t="n">
-        <v>562</v>
+        <v>151</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         { &lt;end&gt;</t>
+          <t>&lt;start&gt;     tzset (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10370,18 +10370,18 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>379</v>
+        <v>3850</v>
       </c>
       <c r="D293" t="n">
-        <v>457</v>
+        <v>38</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>&lt;start&gt; STOP_USB                    = 7 ,      &lt;end&gt;</t>
+          <t>&lt;start&gt; char debug[20] ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10404,18 +10404,18 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>4517</v>
+        <v>1574</v>
       </c>
       <c r="D294" t="n">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     tzset (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include "http_debug.h" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10438,18 +10438,18 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3850</v>
+        <v>1370</v>
       </c>
       <c r="D295" t="n">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>&lt;start&gt; char debug[20] ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10472,18 +10472,18 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1574</v>
+        <v>1131</v>
       </c>
       <c r="D296" t="n">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include "http_debug.h" &lt;end&gt;</t>
+          <t>&lt;start&gt; block_offset = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10506,18 +10506,18 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1370</v>
+        <v>3585</v>
       </c>
       <c r="D297" t="n">
-        <v>563</v>
+        <v>129</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10527,11 +10527,11 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -10540,18 +10540,18 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1131</v>
+        <v>2685</v>
       </c>
       <c r="D298" t="n">
-        <v>292</v>
+        <v>426</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>&lt;start&gt; block_offset = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void DisplayRequest ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10574,18 +10574,18 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2685</v>
+        <v>191</v>
       </c>
       <c r="D299" t="n">
-        <v>426</v>
+        <v>256</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void DisplayRequest ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     GyroStartup (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10608,18 +10608,18 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>191</v>
+        <v>2749</v>
       </c>
       <c r="D300" t="n">
-        <v>256</v>
+        <v>524</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     GyroStartup (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                + vend_amount_H &lt;end&gt;</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10642,18 +10642,18 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2749</v>
+        <v>1888</v>
       </c>
       <c r="D301" t="n">
-        <v>524</v>
+        <v>374</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                + vend_amount_H &lt;end&gt;</t>
+          <t>&lt;start&gt;                                       )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10676,18 +10676,18 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1888</v>
+        <v>3595</v>
       </c>
       <c r="D302" t="n">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                       )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; PORTA |= _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  ;   &lt;end&gt;</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10710,18 +10710,18 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3595</v>
+        <v>2760</v>
       </c>
       <c r="D303" t="n">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>&lt;start&gt; PORTA |= _BV ( 3 )  | _BV ( 4 )  | _BV ( 5 )  ;   &lt;end&gt;</t>
+          <t>&lt;start&gt; void VendDenied ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10744,18 +10744,18 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2760</v>
+        <v>1248</v>
       </c>
       <c r="D304" t="n">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void VendDenied ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10778,18 +10778,18 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1248</v>
+        <v>3915</v>
       </c>
       <c r="D305" t="n">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                             lockFlag = TRUE ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10812,18 +10812,18 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3915</v>
+        <v>731</v>
       </c>
       <c r="D306" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             lockFlag = TRUE ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; system_rtc_mem_write ( RESET_COUNTER_RTC_ADDRESS ,  &amp;counter ,  sizeof ( counter )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10846,18 +10846,18 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>731</v>
+        <v>471</v>
       </c>
       <c r="D307" t="n">
-        <v>115</v>
+        <v>566</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>&lt;start&gt; system_rtc_mem_write ( RESET_COUNTER_RTC_ADDRESS ,  &amp;counter ,  sizeof ( counter )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10880,18 +10880,18 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>471</v>
+        <v>2737</v>
       </c>
       <c r="D308" t="n">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } &lt;end&gt;</t>
+          <t>&lt;start&gt;     uint8_t checksum = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10914,18 +10914,18 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2737</v>
+        <v>1702</v>
       </c>
       <c r="D309" t="n">
-        <v>511</v>
+        <v>158</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     uint8_t checksum = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; static int http_report_func ( void *handle ,  const char *topic_name ,  int req_ack ,  void *data ,  int len )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10948,18 +10948,18 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1702</v>
+        <v>1547</v>
       </c>
       <c r="D310" t="n">
-        <v>158</v>
+        <v>752</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>&lt;start&gt; static int http_report_func ( void *handle ,  const char *topic_name ,  int req_ack ,  void *data ,  int len )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10982,18 +10982,18 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1547</v>
+        <v>790</v>
       </c>
       <c r="D311" t="n">
-        <v>752</v>
+        <v>45</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     const char* bus_name )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -11016,18 +11016,18 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>790</v>
+        <v>3386</v>
       </c>
       <c r="D312" t="n">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     const char* bus_name )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( !EVP_CipherUpdate ( ctx ,  outbuf ,  &amp;outlen ,  inbuf ,  ENC_SEC_SIZE )  )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H312" t="n">
@@ -11054,14 +11054,14 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3386</v>
+        <v>3362</v>
       </c>
       <c r="D313" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( !EVP_CipherUpdate ( ctx ,  outbuf ,  &amp;outlen ,  inbuf ,  ENC_SEC_SIZE )  )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; g_assert ( EVP_CIPHER_CTX_iv_length ( ctx )  == 16 )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H313" t="n">
@@ -11084,18 +11084,18 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3108</v>
+        <v>2083</v>
       </c>
       <c r="D314" t="n">
-        <v>86</v>
+        <v>601</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -11105,11 +11105,11 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -11118,18 +11118,18 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>346</v>
+        <v>3666</v>
       </c>
       <c r="D315" t="n">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             if  ( inactive == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; pot2 = VALUE_POT ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -11139,11 +11139,11 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -11152,18 +11152,18 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3362</v>
+        <v>4506</v>
       </c>
       <c r="D316" t="n">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_assert ( EVP_CIPHER_CTX_iv_length ( ctx )  == 16 )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     int       retry       = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -11186,18 +11186,18 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2083</v>
+        <v>2627</v>
       </c>
       <c r="D317" t="n">
-        <v>601</v>
+        <v>355</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         goto do_exit ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; uint8_t MDB_DataCount  ( void )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -11220,18 +11220,18 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3666</v>
+        <v>3347</v>
       </c>
       <c r="D318" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>&lt;start&gt; pot2 = VALUE_POT ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; guint64 sector_count = 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -11254,18 +11254,18 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>4506</v>
+        <v>4168</v>
       </c>
       <c r="D319" t="n">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     int       retry       = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -11288,18 +11288,18 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2627</v>
+        <v>4240</v>
       </c>
       <c r="D320" t="n">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>&lt;start&gt; uint8_t MDB_DataCount  ( void )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( !status )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -11309,11 +11309,11 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -11322,18 +11322,18 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3347</v>
+        <v>1620</v>
       </c>
       <c r="D321" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>&lt;start&gt; guint64 sector_count = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -11356,18 +11356,18 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4168</v>
+        <v>4557</v>
       </c>
       <c r="D322" t="n">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 } &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;stdio.h&gt; &lt;end&gt;</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -11390,18 +11390,18 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1620</v>
+        <v>49</v>
       </c>
       <c r="D323" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     "}" &lt;end&gt;</t>
+          <t>&lt;start&gt;     RtcTasks (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -11428,14 +11428,14 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4557</v>
+        <v>4706</v>
       </c>
       <c r="D324" t="n">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;stdio.h&gt; &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  (  ( status = atcab_write_pubkey ( rotating_key_slot ,  public_key )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H324" t="n">
@@ -11458,18 +11458,18 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>49</v>
+        <v>4414</v>
       </c>
       <c r="D325" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     RtcTasks (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -11492,18 +11492,18 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4706</v>
+        <v>3163</v>
       </c>
       <c r="D326" t="n">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  (  ( status = atcab_write_pubkey ( rotating_key_slot ,  public_key )  )  != ATCA_SUCCESS )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -11513,11 +11513,11 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -11526,18 +11526,18 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>4414</v>
+        <v>3213</v>
       </c>
       <c r="D327" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -11547,11 +11547,11 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -12342,18 +12342,18 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2581</v>
+        <v>2269</v>
       </c>
       <c r="D351" t="n">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; 0x0 , 0x7 , 0xf , 0xff , 0xf8 , 0xf , 0x0 , 0x0 ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12363,11 +12363,11 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -12376,18 +12376,18 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2269</v>
+        <v>2950</v>
       </c>
       <c r="D352" t="n">
-        <v>36</v>
+        <v>778</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>&lt;start&gt; 0x0 , 0x7 , 0xf , 0xff , 0xf8 , 0xf , 0x0 , 0x0 ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     csh_state = CSH_S_ENABLED ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -12410,18 +12410,18 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>tc-iot-sdk-embedded main.c</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2950</v>
+        <v>4419</v>
       </c>
       <c r="D353" t="n">
-        <v>778</v>
+        <v>49</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     csh_state = CSH_S_ENABLED ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     while  ( cnt++ &lt; wait_cnt )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12444,18 +12444,18 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>tc-iot-sdk-embedded main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4419</v>
+        <v>2203</v>
       </c>
       <c r="D354" t="n">
-        <v>49</v>
+        <v>737</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     while  ( cnt++ &lt; wait_cnt )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -12478,18 +12478,18 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2203</v>
+        <v>776</v>
       </c>
       <c r="D355" t="n">
-        <v>737</v>
+        <v>160</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt; dhap_init ( dhsettings_get_wifi_ssid (  )  ,  dhsettings_get_wifi_password (  )  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12512,18 +12512,18 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>776</v>
+        <v>2500</v>
       </c>
       <c r="D356" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>&lt;start&gt; dhap_init ( dhsettings_get_wifi_ssid (  )  ,  dhsettings_get_wifi_password (  )  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 6 ;  ++i )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12546,18 +12546,18 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2500</v>
+        <v>1464</v>
       </c>
       <c r="D357" t="n">
-        <v>187</v>
+        <v>662</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     for  ( i = 0 ;  i &lt; 6 ;  ++i )  &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -12580,18 +12580,18 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1464</v>
+        <v>3387</v>
       </c>
       <c r="D358" t="n">
-        <v>662</v>
+        <v>98</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt; g_set_error ( error ,  R_CRYPT_ERROR ,  R_CRYPT_ERROR_FAILED ,  "EVP_CipherUpdate (  )  failed" )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -12614,18 +12614,18 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3387</v>
+        <v>935</v>
       </c>
       <c r="D359" t="n">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>&lt;start&gt; g_set_error ( error ,  R_CRYPT_ERROR ,  R_CRYPT_ERROR_FAILED ,  "EVP_CipherUpdate (  )  failed" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -12648,18 +12648,18 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>935</v>
+        <v>1517</v>
       </c>
       <c r="D360" t="n">
-        <v>193</v>
+        <v>720</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt; { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -12682,14 +12682,14 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1517</v>
+        <v>2911</v>
       </c>
       <c r="D361" t="n">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -12716,18 +12716,18 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2911</v>
+        <v>797</v>
       </c>
       <c r="D362" t="n">
-        <v>733</v>
+        <v>52</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>&lt;start&gt; { &lt;end&gt;</t>
+          <t>&lt;start&gt;         bus-&gt;timeout = RT_TICK_PER_SECOND ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12750,18 +12750,18 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>797</v>
+        <v>3223</v>
       </c>
       <c r="D363" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         bus-&gt;timeout = RT_TICK_PER_SECOND ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;      &lt;end&gt;</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12784,18 +12784,18 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3223</v>
+        <v>779</v>
       </c>
       <c r="D364" t="n">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>&lt;start&gt;      &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12818,18 +12818,18 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>779</v>
+        <v>4290</v>
       </c>
       <c r="D365" t="n">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;                                     OLED_Refresh (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12852,18 +12852,18 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4290</v>
+        <v>2213</v>
       </c>
       <c r="D366" t="n">
-        <v>325</v>
+        <v>747</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                     OLED_Refresh (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( pvalue )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
       <c r="H366" t="n">
@@ -12886,18 +12886,18 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2213</v>
+        <v>7</v>
       </c>
       <c r="D367" t="n">
-        <v>747</v>
+        <v>34</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( pvalue )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[0, 0]</t>
         </is>
       </c>
       <c r="H367" t="n">
@@ -12920,18 +12920,18 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>7</v>
+        <v>693</v>
       </c>
       <c r="D368" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #ifdef USE_GYRO &lt;end&gt;</t>
+          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12958,14 +12958,14 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="D369" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>&lt;start&gt; break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; void user_rf_pre_init ( void )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12988,18 +12988,18 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>719</v>
+        <v>3620</v>
       </c>
       <c r="D370" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>&lt;start&gt; void user_rf_pre_init ( void )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -13009,11 +13009,11 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -13906,18 +13906,18 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>628</v>
+        <v>4720</v>
       </c>
       <c r="D397" t="n">
-        <v>756</v>
+        <v>215</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -13940,18 +13940,18 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4032</v>
+        <v>628</v>
       </c>
       <c r="D398" t="n">
-        <v>62</v>
+        <v>756</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     char* at_cipsend = "AT+CIPSEND\r\n" ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 { &lt;end&gt;</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -13974,18 +13974,18 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2710</v>
+        <v>4032</v>
       </c>
       <c r="D399" t="n">
-        <v>476</v>
+        <v>62</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } &lt;end&gt;</t>
+          <t>&lt;start&gt;     char* at_cipsend = "AT+CIPSEND\r\n" ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -14008,18 +14008,18 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1277</v>
+        <v>2710</v>
       </c>
       <c r="D400" t="n">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; 16 ;  i++ )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -14042,18 +14042,18 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1593</v>
+        <v>1277</v>
       </c>
       <c r="D401" t="n">
-        <v>33</v>
+        <v>465</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #endif &lt;end&gt;</t>
+          <t>&lt;start&gt; for  ( i = 0 ;  i &lt; 16 ;  i++ )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -14076,18 +14076,18 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>175</v>
+        <v>1593</v>
       </c>
       <c r="D402" t="n">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     else &lt;end&gt;</t>
+          <t>&lt;start&gt; #endif &lt;end&gt;</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -14110,18 +14110,18 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1554</v>
+        <v>175</v>
       </c>
       <c r="D403" t="n">
-        <v>759</v>
+        <v>236</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>&lt;start&gt; reportSuccess (  )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;     else &lt;end&gt;</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -14144,18 +14144,18 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>3836</v>
+        <v>1554</v>
       </c>
       <c r="D404" t="n">
-        <v>24</v>
+        <v>759</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>&lt;start&gt; #include &lt;stdbool.h&gt;        &lt;end&gt;</t>
+          <t>&lt;start&gt; reportSuccess (  )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -14178,18 +14178,18 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4763</v>
+        <v>3836</v>
       </c>
       <c r="D405" t="n">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         atca_delay_ms ( delay_ms )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; #include &lt;stdbool.h&gt;        &lt;end&gt;</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -14212,18 +14212,18 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1088</v>
+        <v>4763</v>
       </c>
       <c r="D406" t="n">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } &lt;end&gt;</t>
+          <t>&lt;start&gt;         atca_delay_ms ( delay_ms )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -14246,18 +14246,18 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3327</v>
+        <v>1088</v>
       </c>
       <c r="D407" t="n">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>&lt;start&gt; return g_quark_from_static_string ( "r_crypt_error_quark" )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -14280,31 +14280,65 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
+          <t>rauc crypt.c</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>3327</v>
+      </c>
+      <c r="D408" t="n">
+        <v>12</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>&lt;start&gt; return g_quark_from_static_string ( "r_crypt_error_quark" )  ;  &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
           <t>m2_fingerprint main.c</t>
         </is>
       </c>
-      <c r="C408" t="n">
+      <c r="C409" t="n">
         <v>2320</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D409" t="n">
         <v>87</v>
       </c>
-      <c r="E408" t="inlineStr">
+      <c r="E409" t="inlineStr">
         <is>
           <t>&lt;start&gt; void setup ( void )  { &lt;end&gt;</t>
         </is>
       </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>[0, 0]</t>
-        </is>
-      </c>
-      <c r="H408" t="n">
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="H409" t="n">
         <v>0</v>
       </c>
     </row>
